--- a/backend/data/100.xlsx
+++ b/backend/data/100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,2400 +448,1920 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>김동연, '아동복지와 돌봄의 현안과 대책' 토론회 축사</t>
+          <t>선거 앞두고 親文서 親李로 갈아탄 김근태계</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>구리시 인창동에 산불대응센터 건립</t>
+          <t>李, 오차범위 밖 앞서…李 42.4% vs 尹 34.9%</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>日, 사도광산 세계유산 후보로…외교부 "즉각 철회 촉구"</t>
+          <t>국회, 김진욱 공수처장 불러 '통신조회' 논란 캐묻는다</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>국회 토론회 참석한 김동연 후보</t>
+          <t>공수처, 윤석열 통신자료도 조회…정당한 수사인가, 野 사찰인가</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>이재명 "국민의힘과 '연정' 바람직…가능성은 낮을 듯"</t>
+          <t>'나를 위해 이재명' 정철 "일주일 전 툭 떠오른 문구…이거 물건 되겠다"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>아산硏 "내년 가장 큰 리스크는 한미동맹 균열 가능성"</t>
+          <t>공수처, 윤석열·김건희도 통신조회…尹 "게슈타포나 할 일"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[신년사] 신은호 인천시의회 의장 "새해엔 일상 회복되길"</t>
+          <t>5·7급 공무원 시험 응시 연령 하향</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>'아동복지와 돌봄의 현안과 대책' 토론회 참석한 김동연 새로운물결 대선 후보</t>
+          <t>이재명, 윤석열 향한 거센 입 “특수부 검사 면모 걱정” “외교 발언 심사숙고 해야”</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>“공수처가 아니라 윤수처”…국민의힘, 사찰 의혹 공수처 맹공</t>
+          <t>서욱, '감염병 전담병원' 국군포천병원 현장 점검</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[인사] 강진군</t>
+          <t>여야, 김진욱 출석시켜 '사찰' 의혹 현안질의 합의</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>한·중 의회, 행정입법에 대한 입법부 통제 중요성 확인</t>
+          <t>與野, 31일 본회의 전격합의···법사위선 공수처장 '통신조회 논란' 질의</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>이준석, 호텔 성상납 의혹 제기한 가세연 고소 방침…“허위사실”(종합)</t>
+          <t>野 "'윤석열 죽이기', 결국 실패로 끝났다…티끌조차 못찾아"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[정치+] 정세균, 이재명 후원회장 수락…윤석열, 선대위 기강 다잡기</t>
+          <t>TK 일정 시작한 윤석열…"이재명 '감원전'? 왜 또 입장 바뀌나"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>문 대통령 “남북철도 연결되면 동남권이 유라시아 진출 거점”</t>
+          <t>때아닌 야권발 정계개편 시나리오…與 연기 피우자 野 손사래</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>윤석열 "김건희, 유세 강요 안 해…집사람은 자기 일 있다"</t>
+          <t>[팩트체크] 국회의원 출마 연령 만 18세로 내린다는데…다른 나라는?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>이재명 "터무니없는 네거티브"…윤석열 "물타기 토론은 안해"</t>
+          <t>윤석열 "공수처, 독재시절 하던 짓…대통령되면 책임 묻겠다"(종합)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>與 정책 '역주행'에 우려 드러낸 홍남기, "정부 성과 정확히 전달 해달라"</t>
+          <t>[사사건건] 이재명 “미래로 갈 것인지, 무능한 보복에 매달릴 것인지”</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>법제처, 행정원칙·기준 담은 '행정기본법 해설서' 발간</t>
+          <t>윤석열 "공수처가 권위주의 시절에나 있던 짓 해…입법 사기"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>제임스 김 암참 회장 만난 윤석열</t>
+          <t>"내 아들 취직 좀"…이런 공무원, 이젠 김영란法 적용</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>가세연 "이준석, 룸살롱 갔냐 안 갔냐 답해라" '성상납 의혹' 추가 폭로 예고</t>
+          <t>이재명, ‘아들 입시’ 허위사실 유포 의원 고발 예고</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>국방안보특별위 이철휘 위원장에게 임명장 수여하는 송영길 대표</t>
+          <t>이재명, 이낙연과 신복지 공약..."복지도 선진국 반열로"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>인사말하는 송영길 대표</t>
+          <t>[영상] 신지예 "부족한 후보들이 토론 요청…지지율 높으면 안해"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>민주당 송영길 대표, 국방안보특별위원회 임명장 수여식</t>
+          <t>이재명, 영·호남 특보단장에 최인호·강기정 임명</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>박근혜 전 대통령에게 "미안하다"는 윤석열</t>
+          <t>[오뉴스 출연] 대선후보 토론 공방 (김수민 평론가)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>민주당, 이재명 형제 갈등 다룬 책 판매금지 가처분 신청</t>
+          <t>신지예, 이재명 ‘나를 위해’ 슬로건에  “정말 李 답다”</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>내년 대통령 연봉 2억4,000만원...병사 월급 11% 인상</t>
+          <t>與野, 31일 국회 본회의 소집…'대장동 특검’ 합의는 불발</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>기조발언하는 윤석열</t>
+          <t>윤석열·김건희 통신자료도 조회..."공수처장 구속돼야"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>암참 간담회 참석하는 윤석열</t>
+          <t>이재명 “대통령 부인은 공적 존재, 아들은 남”</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>암참 회장 만난 윤석열 후보</t>
+          <t>윤석열 자문역 신평 "이준석은 걸림돌, 대표 공석 문제 안돼"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>마스크 벗는 윤석열</t>
+          <t>[사사건건] 이준석 “털 깎인 매머드 쫓아오는 악몽…선대위 복귀 고려안해”</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:19</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>암참 간담회 참석한 윤석열</t>
+          <t>여야, '언론사찰' 공수처 현안 질의·언론특위 연장 합의</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:19</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>윤석열 '한미 경제 현안에 대한 정책은?'</t>
+          <t>李 "방향 맞아 → 오류 → 실패"…'文 부동산 때리기' 갈수록 세진다</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>이재명 "문재인 정부, 권력행사 부정부패 없었다"</t>
+          <t>군 부대 오미크론 유입 첫 공식 확인…추가 확진 가능성</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>윤석열, 한미 경제정책 구상</t>
+          <t>이준석 “털 깎인 매머드가 쫓아오는 악몽 꾼다”</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>정부 "일 사도광산 세계유산 등재추진 매우 개탄…즉각 철회 촉구"</t>
+          <t>민주당, 내일 천정배 등 호남계 10여 명 복당식</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>이준석 '돌풍'이 200일 만에 '역풍'으로…당내 고립?</t>
+          <t>정부 탈원전 정책 비판한 윤석열, "원전 중단은 범죄"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>파주시, 2018년부터 4년간 외부 재원 1천56억원 확보</t>
+          <t>여야, 31일 본회의 소집‥'대장동 특검' 합의는 불발</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>마주 앉은 윤호중-김기현, 여야 원내대표 회동</t>
+          <t>윤석열 후보 '예를 갖춰서'</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>박병석 의장, 대선후보에 ‘대한민국 미래 청사진’ 전달</t>
+          <t>예법 배우는 윤석열 후보</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>"아내 역할만 충실" 김건희에 고민정 "영부인 선택영역 아냐"</t>
+          <t>안동 도산서원 찾은 윤석열 대선 후보</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>악수하는 윤호중-김기현, 원내대표 회동</t>
+          <t>퇴계 이황 종손으로부터 글귀 선물 받는 윤석열 후보</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>정진상 “검찰 출석 요구 불응 사실 아냐…일자 조율 중”</t>
+          <t>윤석열 후보 '인사는 깍듯이'</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>이재명 "촛불 직후 개헌 실기…실현가능성 낮다"</t>
+          <t>윤석열 후보 '조복 글귀와 함께'</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[게시판] 소상공인연합회. 국회의원 12명에 '초정대상' 시상</t>
+          <t>안동 도산서원 찾은 윤석열 후보</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>18년 노력의 결실 '동남권 4개 철도' 개통…지역균형 뉴딜 새 시대 열렸다</t>
+          <t>이재명, 이낙연과 드림팀 첫 호흡..새 슬로건 발표</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>이낙연 이어 정세균도 ‘등판’···이재명 후원회장 맡아</t>
+          <t>잇단 `러브콜`에 몸값 껑충…안철수, 정치적 존재감 과시</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>윤석열 “박근혜에 인간적으로 미안한 마음…건강 회복 바랄뿐”</t>
+          <t>대전 찾은 우원식 “내년 대선, 향후 20년 정치지형 결정”</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LH·SH 직원과 가족, 내년 5월부터 사업지구내 부동산거래 신고 의무</t>
+          <t>국민의힘, 공수처 앞 의총 취소…"국회 오는 김진욱에 집중"(종합)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>‘윤리위 제소’ 김용남, 이준석에 “벼락출세 하더니 망가져”</t>
+          <t>이용호 “이재명, 정치공세 할 시간 있으면 가족 간수부터 하라”</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>취재진 질문 듣는 이준석 국민의힘 대표</t>
+          <t>공수처, 윤석열·김건희 통신조회에…野 “공수처장 감옥 가야”</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>이준석, '대표 사퇴론'에 "평가에 관대…이런 게 민주주의"</t>
+          <t>"정우성 믿었는데"···'고요의 바다' 개미의 눈물</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>이준석, '대표 사퇴론'에 "평가에 관대…이런 게 민주주의"</t>
+          <t>송영길, 윤석열 겨냥 "외교에 대해 무지…나라 맡기면 위험"</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>취재진 질문 듣는 이준석 국민의힘 대표</t>
+          <t>퇴계 이황 선생 위패 모신 상덕사 참배하는 윤석열 후보</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>윤석열 "반시장적 현 정부 정책 정상화시킬 것‥불합리한 규제 개선"</t>
+          <t>상덕사 참배하는 윤석열 후보</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>北 "美 '테러재판관' 행세…타국 테러국가 매도는 적반하장"</t>
+          <t>상덕사 참배하는 윤석열 후보</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>이준석 측, `李 2013년 성 상납 받은 의혹` 가세연에 "허위사실" 고소</t>
+          <t>상덕사 참배하는 윤석열 후보</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>이재명, MB 사면론에 "'좋은 게 좋은 것'은 오히려 통합 저해"</t>
+          <t>상덕사 참배하는 윤석열 후보</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>이재명, 이명박 사면론에 “대사면 오히려 통합 저해”</t>
+          <t>공수처, 윤석열·김건희 통신 기록 조회… 野 의원 78명도 조사(종합)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>환영사하는 제임스 김</t>
+          <t>李, 새 슬로건 '앞으로 제대로 나를 위해 이재명'</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>윤석열 대선 후보 '주한미국상공회의소 간담회'</t>
+          <t>[여의도펀치] 민주당 박상혁·국민의힘 박수영 한판 토론</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>윤석열 대선 후보 '주한미국상공회의소 간담회'</t>
+          <t>尹 “대통령 5년이 뭐 대단하다고... 文정권 너무 겁이 없다”</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>제임스 김 주한미국상공회의소 회장과 만난 윤석열</t>
+          <t>종교시설 방역현장 점검하는 황희 장관</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>윤석열 대선 후보 '주한미국상공회의소 간담회'</t>
+          <t>종교시설 방역현장 점검나선 황의 장관</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>윤석열 대선 후보 '주한미국상공회의소 간담회'</t>
+          <t>배달 라이더 고용보험 안내하는 박화진 차관</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>제임스 김 주한미국상공회의소 회장과 만난 윤석열</t>
+          <t>공무원연금공단 콜센터 찾은 김우호 인사혁신처장</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>제임스 김 주한미국상공회의소 회장과 만난 윤석열</t>
+          <t>인천공항 병무민원센터 찾은 정석환 병무청장</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>윤석열 대선 후보 '주한미국상공회의소 간담회'</t>
+          <t>모집병 면접장 방역상황 등 살피는 정석환 병무청장</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>윤석열 대선 후보 '주한미국상공회의소 간담회'</t>
+          <t>공무원연금공단 콜센터 찾은 김우호 인사혁신처장</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>주한미국상공회의소 간담회하는 윤석열 후보</t>
+          <t>배달 라이더 고용보험 안내하는 박화진 차관</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>주한미국상공회의소 간담회하는 윤석열 후보</t>
+          <t>배달 라이더 고용보험 안내하는 박화진 차관</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>윤석열 대선 후보 '주한미국상공회의소 간담회'</t>
+          <t>종교시설 방역현장 점검하는 황희 장관</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>더불어민주당 송영길 대표, 국방안보특별위원회 임명장 수여식 인사말</t>
+          <t>이재명·이낙연, 신복지 공약 “아동수당 月10만원, 7세→18세까지”</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>이준석과 윤석열, 등 돌린 결정적 이유 세 가지</t>
+          <t>[단독]보훈예산 근거인 보훈대상자 부상·질병 데이터 8만 명 누락</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>충남 가로림만에 저수온 주의보 발령</t>
+          <t>이준석 측, 성상납 의혹 제기한 '가세연' 강용석 등 고소</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>이준석 “선대위, 인적 쇄신 없이는 변화도 없어”</t>
+          <t>"복지를 선진국 수준으로"…"원자력 정책 다시 세우겠다"</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>더불어민주당 국방안보특별위원회 임명장 수여식 기념촬영</t>
+          <t>고용부 차관, 배달 라이더 쉼터 방문</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>더불어민주당 송영길 대표, 국방안보특별위원회 임명장 수여식 인사말</t>
+          <t>고용보험 적용 내용 안내하는 고용부 차관</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>더불어민주당 송영길 대표, 국방안보특별위원회 임명장 수여</t>
+          <t>고용부 차관, 배달 라이더 쉼터 방문</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>더불어민주당 국방안보특별위원회 임명장 수여식</t>
+          <t>도산서원 방문한 윤석열 대선 후보</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>인사말하는 이철휘 더불어민주당 국방안보특별위원장</t>
+          <t>안동 도산서원 방문한 윤석열 후보</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>더불어민주당 국방안보특별위원회 임명장 수여식</t>
+          <t>윤석열 후보, 안동 도산서원 방문</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>이준석 “尹측에서 요청하면 복귀 생각…아직 연락 없어”</t>
+          <t>안동 도산서원 방문한 윤석열 후보</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>"제설장비 없이 장병들만 X뺑이"···軍, 제설 지원 논란</t>
+          <t>안동 도산서원 방문한 윤석열 후보</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>"올해 대북송금" 탈북민 20% 불과…북한 코로나 국경봉쇄 여파</t>
+          <t>전방 찾은 김총리 "세계 5위권 최강군대…여러분이 안보 주역"(종합)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>북 “美 테러재판관 행세 적반하장”…테러지원국 재지정 우회 반발</t>
+          <t>[노컷브이]국힘 "윤석열 10회, 가족 9회 사찰당했다"</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>방사청 "고체연료 우주발사체 설계, 내년부터 민군 공동 추진"</t>
+          <t>'이재명 호남표 챙긴다'…강기정, 민주당 텃밭서 진두지휘</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>아동복지와 돌봄의 현안과 대책 토론회 참석한 김동연 대선후보</t>
+          <t>국민의힘 "윤석열 비방 조직적 댓글 징후"…내일 회견서 공개</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>'아동복지와 돌봄의 현안과 대책' 토론회, 축사하는 김동연</t>
+          <t>이낙연 전면 등판...싸늘한 호남 민심 되돌리기 나선다</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>이준석, 지역균혈발전 모색 정책토론회 축사</t>
+          <t>여·야, 31일 본회의 합의… 미디어특위 활동 연장 처리</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>이준석, 일부 초선 '당대표 사퇴 요구'에 "이런게 민주주의"</t>
+          <t>여야 31일 본회의 합의…30일엔 공수처장 출석 법사위 열기로</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>[더뉴스] 신문만평 모음</t>
+          <t>윤석열·김건희도 털렸다…'무차별 통신조회' 공수처 '총공세'</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>지역균혈발전 모색 정책토론회 참석한 이준석 대표</t>
+          <t>국민의힘 “공수처, 윤석열·김건희 통신 자료 조회”</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>박완주 “종부세 개정 ‘소급적용’ 다 열어놓고 검토…반대하는 정부와 새해부터 논의”</t>
+          <t>이낙연표 '신복지' 띄운 이재명…정책도 '원팀'</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>쌀 27만 톤 정부 매입</t>
+          <t>재정부담은 뒤로 한 채···아동수당 7세→18세로 늘린다</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>당정 '쌀 27만 톤 전량 수매'</t>
+          <t>윤석열 "얼마나 비리 많길래 이렇게 무리하나…文정권 겁이 없다"</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>'쌀값 하락 막는다'</t>
+          <t>내일 법사위...공수처장 상대 '통신조회' 질의</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>당정 '초과생산 쌀 27만 톤 시장격리'</t>
+          <t>김건희 ‘허위 경력 의혹’ 고발인 경찰 조사… “2차 추가 고발하겠다”</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>당정 '쌀 시장 안정위해 27만 톤 시장격리</t>
+          <t>이낙연과 외부 일정 시작한 이재명…기본소득과 대립한 ‘신복지’ 띄우며 통합 신호탄</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>쌀 27만 톤 정부 매입</t>
+          <t>여야 31일 본회의 개최…미디어 특위 연장·엑스포 특위 신설[전문]</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>당정 '쌀 27만 톤 전량 수매'</t>
+          <t>국방장관, 코로나19 전담 국군포천병원 현장점검</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>'과잉 공급 쌀 27만 톤 시장격리'</t>
+          <t>이재명, ‘삶의 질 15위’ 공약 발표…윤석열, TK 찾아 이재명 비판</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>당정 '쌀 시장 안정위해 27만 톤 시장격리</t>
+          <t>'윤석열 선대위' 골든타임 재깍재깍, '요지부동' 이준석 그러나…</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>당정 '초과생산 쌀 27만 톤 전량 매입'</t>
+          <t>윤석열, '퇴계 이황의 뜻과 정신을 계승하겠습니다'</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>당정 '초과생산 쌀 27만 톤 전량 매입'</t>
+          <t>윤석열, '퇴계 이황의 뜻과 정신을 계승하겠습니다'</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>당정 '쌀 27만 톤 전량 수매'</t>
+          <t>윤석열, '퇴계 이황의 뜻과 정신을 계승하겠습니다'</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>쌀 27만 톤 정부 매입</t>
+          <t>윤석열, '퇴계 이황의 뜻과 정신을 계승하겠습니다'</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>'쌀값 하락 막는다'</t>
+          <t>윤석열, '퇴계 이황의 뜻과 정신을 계승하겠습니다'</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>당정 '쌀 27만 톤 전량 수매'</t>
+          <t>윤석열 후보 '조복 글귀와 함께'</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>쌀 27만 톤 정부 매입</t>
+          <t>안동 도산서원 찾은 윤석열 후보</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>주한미국상공회의소 간담회에서 발언하는 윤석열 후보</t>
+          <t>이준석 연내 선대위 복귀 불투명..李 "합류 고려 없다"</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>'울산~부산' 전철 탄 文대통령 "동남권 메가시티 첫 걸음"</t>
+          <t>윤석열 후보 '예를 갖춰서'</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>주한미국상공회의소 간담회에서 발언하는 윤석열 후보</t>
+          <t>12월 임시국회 합의문에 서명하는 여야 원내대표</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>주한미국상공회의소 간담회에서 발언하는 윤석열 후보</t>
+          <t>예법 배우는 윤석열 후보</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>‘대표 사퇴론’ 들은 이준석, “이런 게 민주주의”</t>
+          <t>퇴계 이황 종손으로부터 글귀 선물 받는 윤석열 후보</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>답변하는 이준석 대표</t>
+          <t>윤석열 후보 '인사는 깍듯이'</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>울산서 광역열차 탄 文 "저도 곧 동남권 돌아올 사람…꿈 같다"</t>
+          <t>군부대에도 ‘코로나19 오미크론’ 유입…첫 사례 공식 확인</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>환영사하는 제임스 김 암참 회장</t>
+          <t>국민의힘 울산시당, 봉사·복지·시민소통위원회 발대식 개최</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>주한미국상공회의소 간담회에서 발언하는 윤석열 후보</t>
+          <t>이재명·이낙연, '신복지'로 첫 원팀 공동행보</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>제임스 김 암참 회장과 좌담 하는 윤석열 후보</t>
+          <t>“무소불위 특권의식”“정치 공세”…李-尹 공개토론 놓고 연일 신경전</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>제임스 김 암참 회장과 좌담 하는 윤석열 후보</t>
+          <t>이재명 “생애최초 주택 구입 취득세 50% 감면 대상자 확대하자”</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>제임스 김 암참 회장과 좌담 하는 윤석열 후보</t>
+          <t>안동 도산서원 찾은 윤석열 대선 후보</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>이준석, '성상납' 의혹 제기 가세연 "허위사실 명예훼손" 고소키로</t>
+          <t>여야 원내대표 12월 임시국회 합의문 발표</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>암참 초청 간담회 기조발언하는 윤석열</t>
+          <t>여야, 31일 본회의서 미디어특위 연장…공수처장 30일 법사위 출석(종합)</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>암참 간담회 초청받은 윤석열</t>
+          <t>이재명-이낙연 '첫 공동행보'</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>주한미국상공회의소 간담회에서 발언하는 윤석열 후보</t>
+          <t>당정 '부동산세' 갈등 이어지는데···이재명 "취득세도 완화”</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>나경원 "후보 빛나게 해줄 리더십 필요…선거 이상하게 흘러가"</t>
+          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>"이재명 후보와 함께 젊은 제주 만들 것"</t>
+          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>주한미국상공회의소 간담회에서 발언하는 윤석열 후보</t>
+          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>김영희 "이재명 부부 `캐롤 뮤비`, `나가수` 보다 힘들었다"</t>
+          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>동남권 첫 광역전철 시승 文 "저도 곧 돌아와 생활할 사람"</t>
+          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>이준석 "선대위, 인적쇄신 없이 변화 어렵다"</t>
+          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>이재명, 이명박 사면론에…“통합에 도움이 되는 범위 내에서”</t>
+          <t>여야 원내대표 합의문 발표</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>정부 "日사도광산 세계유산 등재추진 개탄…즉각철회하라"</t>
+          <t>윤석열·김건희 통신자료 턴 공수처…尹 "이러려고 만들었나"</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>윤석열, 암참 간담회서 기조발언</t>
+          <t>악수하는 이재명-이낙연</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>'울산~부산' 전철 탄 文대통령 "부·울·경 메가시티 첫 걸음"</t>
+          <t>이재명, 이낙연과 신복지 공약</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>암참 간담회 참석하는 윤석열 대선후보</t>
+          <t>한국사회보장정보원 방문한 이재명</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>윤석열 "글로벌 스탠다드로 제도 정비해 아태지역 비즈니스 허브로"</t>
+          <t>이천시, 국가유공자 보훈·참전명예수당 인상</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>윤석열, 암참 회장과 좌담</t>
+          <t>공수처, 윤석열·김건희도 통신조회…野 “공수처장 탄핵해야”</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>제임스 김 회장과 좌담하는 윤석열</t>
+          <t>대전·수도·고양·포천 軍병원, 292병상서 민간 확진자 치료</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:58</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>인사말하는 제임스 김 암참 회장</t>
+          <t>李 간판 바꿨다…'이재명은 합니다'→'나를 위해, 이재명'</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:58</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>윤석열 "대통령 되면 IPEF 같은 글로벌 경제 체제에 적극 참여"</t>
+          <t>野 "이재명 두 아들, 대학 입시 불투명" vs 與 "윤석열 선대위 흑색선전 극심"</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:58</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>윤석열 "대통령 되면 글로벌 경제 체제에 적극 참여"</t>
+          <t>이재명·이낙연, 신복지 일정으로 첫 공동행보</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:58</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>통역기 착용하는 윤석열 대선후보</t>
+          <t>윤석열 "대장동 수사 뭉개기· 인사 보복… 이 정권은 겁도 없다"</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:58</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>홍준표 “후보가 직접 갈등 관리해야...이준석 포용하라”</t>
+          <t>[뉴스큐] 與, 탈당파 대통합 추진...이준석, 선대위 복귀 시동?</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:57</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>내년 5년차 이상 민방위 대원 비상소집훈련 폐지</t>
+          <t>윤석열 "文정권 너무 겁 없다…사법 업무자에 보복"</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:57</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>이재명 "촛불혁명 직후 전면개헌했어야…현재는 단계적 개헌"</t>
+          <t>하남시, 2021년 10대 뉴스 1위는?</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:57</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>이재명 "용산공원에 청년주택…도심 용적률 완화 등 공급 늘려야"</t>
+          <t>[현장의재구성] 양보없는 치킨게임…이준석의 선택은?</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 16:57</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>마스크 벗는 윤석열 대선후보</t>
+          <t>野 “공수처, 윤석열 부부 17회 통신 조회…불법 사찰”(종합)</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 16:57</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>통역기 착용하는 윤석열 대선후보</t>
+          <t>해군, 지난주 독도 해역서 '영토수호훈련'</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>“LH 직원, 사업 지구 내 부동산 거래 때 신고 의무”</t>
+          <t>李 "취득세 부담도 완화"‥尹 "원전 중단은 범죄"</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>이재명 "문 정부, 부정부패 없다...높은 지지율 원인"</t>
+          <t>윤석열 '퇴계 이황 선생 위패 참배'</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>인사하는 윤석열 대선후보</t>
+          <t>윤석열 '퇴계 이황 선생 위패 참배'</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>오미크론 확진자·밀접접촉자 격리 14→10일로 줄인다</t>
+          <t>윤석열 '퇴계 이황 선생 위패 참배'</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>인사하는 윤석열 대선후보</t>
+          <t>도산서원 방문한 윤석열 후보</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>"이준석, 尹후보 측 요청하면 당연히 복귀 생각"</t>
+          <t>도산서원 방문한 윤석열 후보</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>윤석열 “김건희 사과, 충분했다 하기 어려워…선거유세 강요 안할 것”</t>
+          <t>도산서원 방문한 윤석열 후보</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>답변하는 윤석열 대선후보</t>
+          <t>도산서원 방문한 윤석열 후보</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2021.12.28 15:19</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>답변하는 윤석열 대선후보</t>
+          <t>[대선 말말말] "김근태의 길 따라서…" "세제도 원전정책도 맨날 바뀌어"</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2021.12.28 15:19</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>윤석열 "전두환 발언, 민주당 후보였다면 괜찮았을텐데 국민의힘 소속이라..."</t>
+          <t>윤석열  “文 탈원전 정책 폐기, 신한울 3·4호기 건설 재개”</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2021.12.28 15:19</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>암참 간담회에서 개회사하는 윤석열 대선후보</t>
+          <t>김정은, 새로운 농촌 전략으로 식량 문제 해결할까</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>文대통령 "가덕신공항 개항되면 동남권, 동북아 8대 메가시티"</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>'대만해협' 또 주인공 될까…"한미일, 국방장관회담 조율중"</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>권익위, 음주 면허 취소 구제 '제멋대로'…감사원 "감경 기준 유명무실"</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>김종인 "이준석 엇박자? 큰 걱정 안해…본인이 문제 잘 알 것"</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>文대통령 "울산-부산 전철로 가다니 꿈 같다…동남권 주민으로 감회 새로워"</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>통일부 “북한 1천여 명 전원회의…내년도 정책방향 주목”</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>고준위방사성 폐기물 관리…이재명 "뾰족한 수 없어…떠안고 살아야"</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>김종인 "공정경제 이뤄져야 포용적 성장 가능…정부 역할 많아"</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>與, 소급적용 포함 '종부세 개정' 착수…"확정은 아냐"</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>윤석열, '겹겹 위기' 정면 돌파 "아내, 진정한 마음서 사과…이준석 능력 대단" (종합)</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>주한미국상공회의소 간담회 발언하는 윤석열</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>윤석열 '주한미국상공회의소 간담회'</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>윤석열 '주한미국상공회의소 간담회'</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>주한미국상공회의소 간담회 발언하는 윤석열</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>윤석열 '주한미국상공회의소 간담회'</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>주한미국상공회의소 간담회 발언하는 윤석열</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>이재명 "개헌 필요하지만 실현 가능성 낮아‥촛불혁명 직후 실기"</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>고양시, 중·고교생 진로멘토단 '고양유니브' 모집</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>[머니S포토] 여야 원내 지도부, 국회 운영위원장실에서 회동</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>강용석 "이준석, 제발 빨리 우릴 고소해 달라…정계은퇴 걸고"</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>오미크론 감염 4명 늘어 449명…강원서 가족간 n차감염 의심(종합)</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>이재명 "공급 부족해 집값 오르는 일 없도록 할 것"</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>정동균 양평군수 "아프가니스탄 여성들에게 희망 보내달라"</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>이준석 "선대위 인적쇄신 없이 변화 어려워…김종인도 아이디어 모색"</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>30년간 조국 해양 수호한 해군 함정 8척 전역</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>국힘 "최강욱 주최 토크쇼에 이재명만 발언…공직선거법 위반"</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>[포토]'악수하는 윤호중-김기현'</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>[포토]'여야 원내대표 회동'</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>[머니S포토] 윤호중·김기현, 여야교섭단체 재논의</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>이재명 "가족 검증에 전적 공감...잘못한 것 책임져야"</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>[포토]'마주 앉은 여야 원내대표'</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>[노컷브이] 윤석열 "이준석 30대지만 대단한 능력…잘 할 것"</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>인사하는 여야 원내대표</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>여야 원내대표 회동</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>윤호중 민주당 원내대표-김기현 국민의힘 원내대표 회동</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>장진영 "이준석, '성상납 받은 사실 없다'고 안 한 이유 무엇인가"</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>[더뉴스] 李, '원팀' 속 정책 행보...尹, '당 내홍' 기강 잡기?</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>[영상]윤석열 "이준석, 자기 할 일 알 것…본인 정치 입지와 직결되는 문제"</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>축사하는 김동연 대선후보</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>이재명, MB 사면론에 "통합과 봉합은 달라...대사면, 통합 저해"</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:08</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>

--- a/backend/data/100.xlsx
+++ b/backend/data/100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B161"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,1920 +448,960 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>선거 앞두고 親文서 親李로 갈아탄 김근태계</t>
+          <t>'나를 위해, 이재명' 새 슬로건…윤, '탈원전' 비판</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.29 17:28</t>
+          <t>2021.12.29 18:31</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>李, 오차범위 밖 앞서…李 42.4% vs 尹 34.9%</t>
+          <t>하락 이어지는 尹, 상승 반전하는 李…다시 요동치는 판세</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.29 17:28</t>
+          <t>2021.12.29 18:30</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>국회, 김진욱 공수처장 불러 '통신조회' 논란 캐묻는다</t>
+          <t>윤석열, 도산서원 방문</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.29 17:28</t>
+          <t>2021.12.29 18:30</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>공수처, 윤석열 통신자료도 조회…정당한 수사인가, 野 사찰인가</t>
+          <t>상가조합원 재건축 분담금 줄어든다…재초환법 법안소위 통과</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.29 17:28</t>
+          <t>2021.12.29 18:29</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>'나를 위해 이재명' 정철 "일주일 전 툭 떠오른 문구…이거 물건 되겠다"</t>
+          <t>여야 의사일정 합의…31일 국회 본회의 소집</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.29 17:27</t>
+          <t>2021.12.29 18:29</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>공수처, 윤석열·김건희도 통신조회…尹 "게슈타포나 할 일"</t>
+          <t>문 대통령 “특수학교 설립 위해 학부모들이 무릎꿇는 일 없도록 할 것”</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.29 17:27</t>
+          <t>2021.12.29 18:29</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5·7급 공무원 시험 응시 연령 하향</t>
+          <t>'조복' 글귀 선물 받는 윤석열</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.29 17:27</t>
+          <t>2021.12.29 18:29</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>이재명, 윤석열 향한 거센 입 “특수부 검사 면모 걱정” “외교 발언 심사숙고 해야”</t>
+          <t>안동 찾은 우리공화당, 국민의힘 윤석열 대선 후보에 사과 요구</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.29 17:26</t>
+          <t>2021.12.29 18:28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>서욱, '감염병 전담병원' 국군포천병원 현장 점검</t>
+          <t>책자 선물 받는 윤석열</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.29 17:26</t>
+          <t>2021.12.29 18:28</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>여야, 김진욱 출석시켜 '사찰' 의혹 현안질의 합의</t>
+          <t>공수처, 윤석열·김건희 통신 기록도 조회… 野 "불법 사찰" 맹공</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.29 17:26</t>
+          <t>2021.12.29 18:28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>與野, 31일 본회의 전격합의···법사위선 공수처장 '통신조회 논란' 질의</t>
+          <t>與, 이재명 아들 입시 의혹 제기에 "尹, 공식 사과하라"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.29 17:25</t>
+          <t>2021.12.29 18:27</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>野 "'윤석열 죽이기', 결국 실패로 끝났다…티끌조차 못찾아"</t>
+          <t>도산서원 찾아 퇴계 이황 선생 참배하는 윤석열</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.29 17:25</t>
+          <t>2021.12.29 18:27</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TK 일정 시작한 윤석열…"이재명 '감원전'? 왜 또 입장 바뀌나"</t>
+          <t>송영길 “尹 토론 거부 아쉬워”…‘불완전 판매’ 빗대 비판</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.29 17:25</t>
+          <t>2021.12.29 18:26</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>때아닌 야권발 정계개편 시나리오…與 연기 피우자 野 손사래</t>
+          <t>윤석열, 도산서원 찾아 퇴계 이황 선생 참배</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.29 17:24</t>
+          <t>2021.12.29 18:26</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[팩트체크] 국회의원 출마 연령 만 18세로 내린다는데…다른 나라는?</t>
+          <t>윤석열 “공수처 통신조회, 독재시절에나 있던 짓…입법 사기”</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.29 17:24</t>
+          <t>2021.12.29 18:26</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>윤석열 "공수처, 독재시절 하던 짓…대통령되면 책임 묻겠다"(종합)</t>
+          <t>퇴계 이황 선생 위패 참배하는 윤석열</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[사사건건] 이재명 “미래로 갈 것인지, 무능한 보복에 매달릴 것인지”</t>
+          <t>SBS CNBC 등 24개 채널, 방송콘텐츠 역량평가 '매우 우수'</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>윤석열 "공수처가 권위주의 시절에나 있던 짓 해…입법 사기"</t>
+          <t>이재명 아들 의혹 '묻지마 폭로'…與팩트체크에 野 8시간만 철회(종합2보)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.29 17:21</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>"내 아들 취직 좀"…이런 공무원, 이젠 김영란法 적용</t>
+          <t>[포토뉴스] 전국한우협회-산림청, 탄소중립 협력 맞손</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.29 17:21</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>이재명, ‘아들 입시’ 허위사실 유포 의원 고발 예고</t>
+          <t>이재명 새 슬로건 '앞으로 제대로'…이낙연과 첫 공개일정</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.29 17:21</t>
+          <t>2021.12.29 18:23</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>이재명, 이낙연과 신복지 공약..."복지도 선진국 반열로"</t>
+          <t>TK 방문한 윤석열, 문재인 정부 ‘탈원전’ 강력 비판</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021.12.29 17:20</t>
+          <t>2021.12.29 18:23</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[영상] 신지예 "부족한 후보들이 토론 요청…지지율 높으면 안해"</t>
+          <t>[포토뉴스] 축산과 산림의 기후위기 공동대응‘숲속 한우농장 만들기’업무협약</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021.12.29 17:20</t>
+          <t>2021.12.29 18:22</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>이재명, 영·호남 특보단장에 최인호·강기정 임명</t>
+          <t>여야, 31일 본회의 열기로…'대장동 특검' 합의는 불발[종합]</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021.12.29 17:20</t>
+          <t>2021.12.29 18:22</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[오뉴스 출연] 대선후보 토론 공방 (김수민 평론가)</t>
+          <t>"유권자 56%, 양당 후보교체 필요…지지율 李 42.4% 尹 34.9%"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021.12.29 17:20</t>
+          <t>2021.12.29 18:21</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>신지예, 이재명 ‘나를 위해’ 슬로건에  “정말 李 답다”</t>
+          <t>정의용 "올림픽 계기 남북관계 개선 어려워져"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021.12.29 17:20</t>
+          <t>2021.12.29 18:21</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>與野, 31일 국회 본회의 소집…'대장동 특검’ 합의는 불발</t>
+          <t>[목요일 아침에] 이재명·윤석열은 ‘정치가’인가</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021.12.29 17:20</t>
+          <t>2021.12.29 18:21</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>윤석열·김건희 통신자료도 조회..."공수처장 구속돼야"</t>
+          <t>국힘 “윤석열 부부도 통신자료 조회당해”…윤 “공수처 책임 묻겠다”</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021.12.29 17:20</t>
+          <t>2021.12.29 18:21</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>이재명 “대통령 부인은 공적 존재, 아들은 남”</t>
+          <t>정의용의 진심 “올림픽 계기 관계개선 기대 어려워…위안부 원죄 어디있냐”</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021.12.29 17:20</t>
+          <t>2021.12.29 18:20</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>윤석열 자문역 신평 "이준석은 걸림돌, 대표 공석 문제 안돼"</t>
+          <t>통신3사, 28㎓ 5G기지국 4.5만개 '공염불'…고작 312개(종합)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021.12.29 17:20</t>
+          <t>2021.12.29 18:20</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>[사사건건] 이준석 “털 깎인 매머드 쫓아오는 악몽…선대위 복귀 고려안해”</t>
+          <t>이재명 “대통령 아들은 남”…김정화 “악취나는 말장난도 하루 이틀”</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021.12.29 17:19</t>
+          <t>2021.12.29 18:20</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>여야, '언론사찰' 공수처 현안 질의·언론특위 연장 합의</t>
+          <t>文 "특수학교 설립에 학부모 무릎 꿇지 않도록 할 것"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021.12.29 17:19</t>
+          <t>2021.12.29 18:19</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>李 "방향 맞아 → 오류 → 실패"…'文 부동산 때리기' 갈수록 세진다</t>
+          <t>尹선대위 갈등 해넘기나... 이준석 "합류 고려 안해"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021.12.29 17:18</t>
+          <t>2021.12.29 18:19</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>군 부대 오미크론 유입 첫 공식 확인…추가 확진 가능성</t>
+          <t>尹, TK서 탈원전 비판… "신한울 건설 재개"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021.12.29 17:18</t>
+          <t>2021.12.29 18:19</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>이준석 “털 깎인 매머드가 쫓아오는 악몽 꾼다”</t>
+          <t>국민의힘 "공수처, 윤석열 10회·김건희 7회 통신자료 조회"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021.12.29 17:15</t>
+          <t>2021.12.29 18:19</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>민주당, 내일 천정배 등 호남계 10여 명 복당식</t>
+          <t>李-李 1호 공약은 '신복지'…"아동수당 18세까지 확대"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021.12.29 17:15</t>
+          <t>2021.12.29 18:19</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>정부 탈원전 정책 비판한 윤석열, "원전 중단은 범죄"</t>
+          <t>서욱 국방장관, 코로나19 전담 국군포천병원 현장 점검</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021.12.29 17:15</t>
+          <t>2021.12.29 18:19</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>여야, 31일 본회의 소집‥'대장동 특검' 합의는 불발</t>
+          <t>이재명, 이낙연과 첫 공개 일정 ‘지지층 결집’…부드러운 슬로건으로 2030 확장 나서</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021.12.29 17:14</t>
+          <t>2021.12.29 18:19</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>윤석열 후보 '예를 갖춰서'</t>
+          <t>발언하는 윤석열</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:18</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>예법 배우는 윤석열 후보</t>
+          <t>발언하는 윤석열</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:18</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>안동 도산서원 찾은 윤석열 대선 후보</t>
+          <t>발언하는 윤석열</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:18</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>퇴계 이황 종손으로부터 글귀 선물 받는 윤석열 후보</t>
+          <t>발언하는 윤석열</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:18</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>윤석열 후보 '인사는 깍듯이'</t>
+          <t>발언하는 윤석열</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:18</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>윤석열 후보 '조복 글귀와 함께'</t>
+          <t>공수처,윤석열ㆍ김건희 통신자료 조회…불법사찰 논란 확산</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:17</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>안동 도산서원 찾은 윤석열 후보</t>
+          <t>복귀 선 그은 이준석, 전방위 압박한 野…김종인 “이번 주 만나” 김기현 “다 정리”</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:17</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>이재명, 이낙연과 드림팀 첫 호흡..새 슬로건 발표</t>
+          <t>윤석열 부부까지 턴 공수처 “영장에 기초” 두둔한 박범계</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:17</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>잇단 `러브콜`에 몸값 껑충…안철수, 정치적 존재감 과시</t>
+          <t>조성은 “윤석열 검찰총장 임명한 文 대통령, 대국민 사과 해달라”</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:16</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>대전 찾은 우원식 “내년 대선, 향후 20년 정치지형 결정”</t>
+          <t>토론 부르짖던 이재명, 페미니즘 이유로 인터뷰 취소</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:16</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>국민의힘, 공수처 앞 의총 취소…"국회 오는 김진욱에 집중"(종합)</t>
+          <t>李 "취득세 감면·보유세 유예" 尹 "보유세 통합·공시가 환원" [李-尹 부동산정책]</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:15</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>이용호 “이재명, 정치공세 할 시간 있으면 가족 간수부터 하라”</t>
+          <t>틀린 내용으로 李아들 의혹 제기한 국민의힘, "착오 유감"</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:15</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>공수처, 윤석열·김건희 통신조회에…野 “공수처장 감옥 가야”</t>
+          <t>‘이재명은 합니다’ 대신 ‘나를 위해, 이재명’…슬로건에 담긴 이재명의 고민</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:14</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>"정우성 믿었는데"···'고요의 바다' 개미의 눈물</t>
+          <t>김혜경, 윤석열보다 하루 앞서 대구·경북 순회</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:14</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>송영길, 윤석열 겨냥 "외교에 대해 무지…나라 맡기면 위험"</t>
+          <t>'이재명 자녀 입시의혹' 제기한 국힘, 전형·학과 틀렸다</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021.12.29 17:11</t>
+          <t>2021.12.29 18:14</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>퇴계 이황 선생 위패 모신 상덕사 참배하는 윤석열 후보</t>
+          <t>이재명 “취득세도 감면”…여야, 원칙 없는 부동산 감세 경쟁</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021.12.29 17:10</t>
+          <t>2021.12.29 18:13</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>상덕사 참배하는 윤석열 후보</t>
+          <t>10배 늘어난 '답정너' 연구용역···정책, 산으로 간다</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021.12.29 17:10</t>
+          <t>2021.12.29 18:13</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>상덕사 참배하는 윤석열 후보</t>
+          <t>與 "국힘의 이재명 아들 허위사실 주장 책임 윤석열 직접 져야"</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2021.12.29 17:10</t>
+          <t>2021.12.29 18:09</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>상덕사 참배하는 윤석열 후보</t>
+          <t>이준석, '성상납 의혹 제기' 강용석·김세의 고소</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2021.12.29 17:10</t>
+          <t>2021.12.29 18:09</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>상덕사 참배하는 윤석열 후보</t>
+          <t>이준석, ‘성접대 의혹 제기’ 가세연 명예훼손 혐의 고소</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2021.12.29 17:10</t>
+          <t>2021.12.29 18:09</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>공수처, 윤석열·김건희 통신 기록 조회… 野 의원 78명도 조사(종합)</t>
+          <t>Seoul, Washington agree on draft for end-of-war declaration: minister</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2021.12.29 17:10</t>
+          <t>2021.12.29 18:08</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>李, 새 슬로건 '앞으로 제대로 나를 위해 이재명'</t>
+          <t>여야 의사일정 합의.. 31일 본회의 개의, 30일 공수처 불러 '통신조회' 질의</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2021.12.29 17:09</t>
+          <t>2021.12.29 18:08</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>[여의도펀치] 민주당 박상혁·국민의힘 박수영 한판 토론</t>
+          <t>김건희 '허위 경력' 수사 착수…'혜경궁 김씨' 다시 꺼낸 국힘</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2021.12.29 17:09</t>
+          <t>2021.12.29 18:08</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>尹 “대통령 5년이 뭐 대단하다고... 文정권 너무 겁이 없다”</t>
+          <t>윤희숙 "이재명, 아들 성매매 의심받자 '남'이라고 버려"</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2021.12.29 17:09</t>
+          <t>2021.12.29 18:08</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>종교시설 방역현장 점검하는 황희 장관</t>
+          <t>'분명한 실패' 文 부동산 정책 비판 수위 올리는 이재명… 왜?</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2021.12.29 17:08</t>
+          <t>2021.12.29 18:05</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>종교시설 방역현장 점검나선 황의 장관</t>
+          <t>[만평] 평론가적 대선후보</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2021.12.29 17:08</t>
+          <t>2021.12.29 18:05</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>배달 라이더 고용보험 안내하는 박화진 차관</t>
+          <t>국민의힘 “공수처, 윤석열 3회·김건희 1회 통신기록 불법 조회”</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2021.12.29 17:08</t>
+          <t>2021.12.29 18:02</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>공무원연금공단 콜센터 찾은 김우호 인사혁신처장</t>
+          <t>김혜경, TK 단독 행보… TK행 윤석열에 맞불</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2021.12.29 17:08</t>
+          <t>2021.12.29 18:02</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>인천공항 병무민원센터 찾은 정석환 병무청장</t>
+          <t>이재명 “부동산 정책 분명 실패”…취득세 완화 공약까지 내놨다</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2021.12.29 17:08</t>
+          <t>2021.12.29 18:02</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>모집병 면접장 방역상황 등 살피는 정석환 병무청장</t>
+          <t>野, 李 아들 '입시 의혹' 공세…與 "팩트도 틀린 가짜뉴스" 법적 대응</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2021.12.29 17:08</t>
+          <t>2021.12.29 18:01</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>공무원연금공단 콜센터 찾은 김우호 인사혁신처장</t>
+          <t>이준석, 강용석·김세의 명예훼손으로 고소</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2021.12.29 17:08</t>
+          <t>2021.12.29 18:01</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>배달 라이더 고용보험 안내하는 박화진 차관</t>
+          <t>여야, 31일 본회의 소집…내일 공수처 현안질의</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2021.12.29 17:08</t>
+          <t>2021.12.29 18:01</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>배달 라이더 고용보험 안내하는 박화진 차관</t>
+          <t>송영길, 尹 향해 “한미일이 中에 대항해야 한다니, 외교 무지”</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2021.12.29 17:08</t>
+          <t>2021.12.29 18:01</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>종교시설 방역현장 점검하는 황희 장관</t>
+          <t>[강인선·배성규의 정치펀치] 안철수 “이재명과 연대하자고? 민주당 꿈 깨라!”</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2021.12.29 17:08</t>
+          <t>2021.12.29 18:01</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>이재명·이낙연, 신복지 공약 “아동수당 月10만원, 7세→18세까지”</t>
+          <t>윤석열, 당 내홍 뒤로 한 TK행 무거운 발걸음…‘텃밭’ 다지기</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2021.12.29 17:08</t>
+          <t>2021.12.29 18:01</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>[단독]보훈예산 근거인 보훈대상자 부상·질병 데이터 8만 명 누락</t>
+          <t>쪼그라드는 금융산업···'성장판' 다시 열어라</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2021.12.29 17:08</t>
+          <t>2021.12.29 18:01</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>이준석 측, 성상납 의혹 제기한 '가세연' 강용석 등 고소</t>
+          <t>문 대통령 8번 방문의 힘? PK서도 밀리는 尹</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2021.12.29 17:07</t>
+          <t>2021.12.29 18:00</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>"복지를 선진국 수준으로"…"원자력 정책 다시 세우겠다"</t>
+          <t>'TK 방문' 윤석열 “신한울 3·4호기 건설 즉각 재개하겠다”…탈원전 비판하며 반문 행보</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2021.12.29 17:07</t>
+          <t>2021.12.29 18:00</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>고용부 차관, 배달 라이더 쉼터 방문</t>
+          <t>제15차 재정관리점검회의</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2021.12.29 17:07</t>
+          <t>2021.12.29 18:00</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>고용보험 적용 내용 안내하는 고용부 차관</t>
+          <t>재정관리점검회의 주재하는 안도걸 차관</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2021.12.29 17:07</t>
+          <t>2021.12.29 18:00</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>고용부 차관, 배달 라이더 쉼터 방문</t>
+          <t>발언하는 안도걸 차관</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2021.12.29 17:07</t>
+          <t>2021.12.29 18:00</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>도산서원 방문한 윤석열 대선 후보</t>
+          <t>발언하는 안도걸 차관</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2021.12.29 17:07</t>
+          <t>2021.12.29 18:00</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>안동 도산서원 방문한 윤석열 후보</t>
+          <t>제15차 재정관리점검회의</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2021.12.29 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>윤석열 후보, 안동 도산서원 방문</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>안동 도산서원 방문한 윤석열 후보</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>안동 도산서원 방문한 윤석열 후보</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>전방 찾은 김총리 "세계 5위권 최강군대…여러분이 안보 주역"(종합)</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>[노컷브이]국힘 "윤석열 10회, 가족 9회 사찰당했다"</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>'이재명 호남표 챙긴다'…강기정, 민주당 텃밭서 진두지휘</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>국민의힘 "윤석열 비방 조직적 댓글 징후"…내일 회견서 공개</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>이낙연 전면 등판...싸늘한 호남 민심 되돌리기 나선다</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>여·야, 31일 본회의 합의… 미디어특위 활동 연장 처리</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>여야 31일 본회의 합의…30일엔 공수처장 출석 법사위 열기로</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>윤석열·김건희도 털렸다…'무차별 통신조회' 공수처 '총공세'</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>국민의힘 “공수처, 윤석열·김건희 통신 자료 조회”</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>이낙연표 '신복지' 띄운 이재명…정책도 '원팀'</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>재정부담은 뒤로 한 채···아동수당 7세→18세로 늘린다</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>윤석열 "얼마나 비리 많길래 이렇게 무리하나…文정권 겁이 없다"</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>내일 법사위...공수처장 상대 '통신조회' 질의</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>김건희 ‘허위 경력 의혹’ 고발인 경찰 조사… “2차 추가 고발하겠다”</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>이낙연과 외부 일정 시작한 이재명…기본소득과 대립한 ‘신복지’ 띄우며 통합 신호탄</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>여야 31일 본회의 개최…미디어 특위 연장·엑스포 특위 신설[전문]</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>국방장관, 코로나19 전담 국군포천병원 현장점검</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>이재명, ‘삶의 질 15위’ 공약 발표…윤석열, TK 찾아 이재명 비판</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>'윤석열 선대위' 골든타임 재깍재깍, '요지부동' 이준석 그러나…</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>윤석열, '퇴계 이황의 뜻과 정신을 계승하겠습니다'</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>윤석열, '퇴계 이황의 뜻과 정신을 계승하겠습니다'</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>윤석열, '퇴계 이황의 뜻과 정신을 계승하겠습니다'</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>윤석열, '퇴계 이황의 뜻과 정신을 계승하겠습니다'</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>윤석열, '퇴계 이황의 뜻과 정신을 계승하겠습니다'</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>윤석열 후보 '조복 글귀와 함께'</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>안동 도산서원 찾은 윤석열 후보</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>이준석 연내 선대위 복귀 불투명..李 "합류 고려 없다"</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>윤석열 후보 '예를 갖춰서'</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>12월 임시국회 합의문에 서명하는 여야 원내대표</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>예법 배우는 윤석열 후보</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>퇴계 이황 종손으로부터 글귀 선물 받는 윤석열 후보</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>윤석열 후보 '인사는 깍듯이'</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>군부대에도 ‘코로나19 오미크론’ 유입…첫 사례 공식 확인</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>국민의힘 울산시당, 봉사·복지·시민소통위원회 발대식 개최</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>이재명·이낙연, '신복지'로 첫 원팀 공동행보</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>“무소불위 특권의식”“정치 공세”…李-尹 공개토론 놓고 연일 신경전</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>이재명 “생애최초 주택 구입 취득세 50% 감면 대상자 확대하자”</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>안동 도산서원 찾은 윤석열 대선 후보</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>여야 원내대표 12월 임시국회 합의문 발표</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>여야, 31일 본회의서 미디어특위 연장…공수처장 30일 법사위 출석(종합)</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>이재명-이낙연 '첫 공동행보'</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>당정 '부동산세' 갈등 이어지는데···이재명 "취득세도 완화”</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>여야 원내대표 합의문 발표</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>윤석열·김건희 통신자료 턴 공수처…尹 "이러려고 만들었나"</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>악수하는 이재명-이낙연</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>이재명, 이낙연과 신복지 공약</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>한국사회보장정보원 방문한 이재명</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>이천시, 국가유공자 보훈·참전명예수당 인상</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>공수처, 윤석열·김건희도 통신조회…野 “공수처장 탄핵해야”</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>대전·수도·고양·포천 軍병원, 292병상서 민간 확진자 치료</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>李 간판 바꿨다…'이재명은 합니다'→'나를 위해, 이재명'</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>野 "이재명 두 아들, 대학 입시 불투명" vs 與 "윤석열 선대위 흑색선전 극심"</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>이재명·이낙연, 신복지 일정으로 첫 공동행보</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>윤석열 "대장동 수사 뭉개기· 인사 보복… 이 정권은 겁도 없다"</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>[뉴스큐] 與, 탈당파 대통합 추진...이준석, 선대위 복귀 시동?</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>윤석열 "文정권 너무 겁 없다…사법 업무자에 보복"</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>하남시, 2021년 10대 뉴스 1위는?</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>[현장의재구성] 양보없는 치킨게임…이준석의 선택은?</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>野 “공수처, 윤석열 부부 17회 통신 조회…불법 사찰”(종합)</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>해군, 지난주 독도 해역서 '영토수호훈련'</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>李 "취득세 부담도 완화"‥尹 "원전 중단은 범죄"</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>윤석열 '퇴계 이황 선생 위패 참배'</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>윤석열 '퇴계 이황 선생 위패 참배'</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>윤석열 '퇴계 이황 선생 위패 참배'</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>도산서원 방문한 윤석열 후보</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>도산서원 방문한 윤석열 후보</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>도산서원 방문한 윤석열 후보</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>도산서원 방문한 윤석열 후보</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>[대선 말말말] "김근태의 길 따라서…" "세제도 원전정책도 맨날 바뀌어"</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>윤석열  “文 탈원전 정책 폐기, 신한울 3·4호기 건설 재개”</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>김정은, 새로운 농촌 전략으로 식량 문제 해결할까</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:56</t>
+          <t>2021.12.29 18:00</t>
         </is>
       </c>
     </row>

--- a/backend/data/100.xlsx
+++ b/backend/data/100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,960 +448,720 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>'나를 위해, 이재명' 새 슬로건…윤, '탈원전' 비판</t>
+          <t>이재명 “생애 첫 주택 취득세 감면, 수도권 4억→6억 상향”</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.29 18:31</t>
+          <t>2021.12.29 19:01</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>하락 이어지는 尹, 상승 반전하는 李…다시 요동치는 판세</t>
+          <t>'이낙연 신복지 공약' 이어받은 李… "삶의 질 OECD 15위로 올리겠다"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.29 18:30</t>
+          <t>2021.12.29 19:01</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>윤석열, 도산서원 방문</t>
+          <t>윤석열, 국민의힘 경북 선대위 출범식</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.29 18:30</t>
+          <t>2021.12.29 19:01</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>상가조합원 재건축 분담금 줄어든다…재초환법 법안소위 통과</t>
+          <t>안동 찾은 국민의힘 윤석열 대선 후보 "제 처와 누이동생까지 사찰 당해" 공수처 비판</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.29 18:29</t>
+          <t>2021.12.29 19:01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>여야 의사일정 합의…31일 국회 본회의 소집</t>
+          <t>[단독] 이재명, 새해 첫날 부산 찾는다... 신·구 권력 PK 공들이기</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.29 18:29</t>
+          <t>2021.12.29 19:00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>문 대통령 “특수학교 설립 위해 학부모들이 무릎꿇는 일 없도록 할 것”</t>
+          <t>CIO went after phone records of Yoon, wife</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.29 18:29</t>
+          <t>2021.12.29 18:58</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>'조복' 글귀 선물 받는 윤석열</t>
+          <t>윤석열 "북한이론 배운 사람들이 국가 약탈"…민주 "색깔론 멈추라"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.29 18:29</t>
+          <t>2021.12.29 18:58</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>안동 찾은 우리공화당, 국민의힘 윤석열 대선 후보에 사과 요구</t>
+          <t>윤석열 '김관용-김정재 경북 총괄선대위원장과 함께'</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.29 18:28</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>책자 선물 받는 윤석열</t>
+          <t>참석자들 향해 인사하는 윤석열</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.29 18:28</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>공수처, 윤석열·김건희 통신 기록도 조회… 野 "불법 사찰" 맹공</t>
+          <t>참석자들 향해 인사하는 윤석열</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.29 18:28</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>與, 이재명 아들 입시 의혹 제기에 "尹, 공식 사과하라"</t>
+          <t>경북 선대위 출범식 참석한 윤석열 후보</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.29 18:27</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>도산서원 찾아 퇴계 이황 선생 참배하는 윤석열</t>
+          <t>윤석열 '경북 선대위 출범식 대선 승리 기원하며'</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.29 18:27</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>송영길 “尹 토론 거부 아쉬워”…‘불완전 판매’ 빗대 비판</t>
+          <t>경북 선대위 출범식 참석한 윤석열</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.29 18:26</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>윤석열, 도산서원 찾아 퇴계 이황 선생 참배</t>
+          <t>윤석열 '경북 선대위 출범식 대선 승리 기원하며'</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.29 18:26</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>윤석열 “공수처 통신조회, 독재시절에나 있던 짓…입법 사기”</t>
+          <t>윤석열 '경북 선대위 출범식 대선 승리 기원하며'</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.29 18:26</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>퇴계 이황 선생 위패 참배하는 윤석열</t>
+          <t>윤석열 '대선 승리 기원 퍼포먼스'</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SBS CNBC 등 24개 채널, 방송콘텐츠 역량평가 '매우 우수'</t>
+          <t>윤석열 '경북 선대위 출범식 대선 승리 기원하며'</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>이재명 아들 의혹 '묻지마 폭로'…與팩트체크에 野 8시간만 철회(종합2보)</t>
+          <t>윤석열 '대선 승리 기원 퍼포먼스'</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[포토뉴스] 전국한우협회-산림청, 탄소중립 협력 맞손</t>
+          <t>윤석열 '대선 승리 기원 퍼포먼스'</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>이재명 새 슬로건 '앞으로 제대로'…이낙연과 첫 공개일정</t>
+          <t>[포토]여야 의사일정 합의…31일 본회의 개의, 30일 공수처 통신조회 질의</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.29 18:23</t>
+          <t>2021.12.29 18:53</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TK 방문한 윤석열, 문재인 정부 ‘탈원전’ 강력 비판</t>
+          <t>국힘 "박성제 배임" MBC "지나친 비판" 공방 이유는</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021.12.29 18:23</t>
+          <t>2021.12.29 18:51</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[포토뉴스] 축산과 산림의 기후위기 공동대응‘숲속 한우농장 만들기’업무협약</t>
+          <t>통신3사 유료방송 매출점유율 90% 육박…방송시장 1.9% 성장</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>여야, 31일 본회의 열기로…'대장동 특검' 합의는 불발[종합]</t>
+          <t>국민의힘 '대선 승리를 위해'</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>"유권자 56%, 양당 후보교체 필요…지지율 李 42.4% 尹 34.9%"</t>
+          <t>경북 찾은 윤석열 후보 '두 팔 번쩍'</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021.12.29 18:21</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>정의용 "올림픽 계기 남북관계 개선 어려워져"</t>
+          <t>국민의힘 경북 선대위 출범 '대선 승리 다짐'</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021.12.29 18:21</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[목요일 아침에] 이재명·윤석열은 ‘정치가’인가</t>
+          <t>정권교체 외치는 윤석열 후보와 국민의힘 경북도당</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021.12.29 18:21</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>국힘 “윤석열 부부도 통신자료 조회당해”…윤 “공수처 책임 묻겠다”</t>
+          <t>경북도당 선대위 출범식 참석한 윤석열 후보</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021.12.29 18:21</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>정의용의 진심 “올림픽 계기 관계개선 기대 어려워…위안부 원죄 어디있냐”</t>
+          <t>윤석열 후보 '함께 바꿉시다'</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021.12.29 18:20</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>통신3사, 28㎓ 5G기지국 4.5만개 '공염불'…고작 312개(종합)</t>
+          <t>안동 찾은 윤석열 후보 '두 팔 번쩍'</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021.12.29 18:20</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>이재명 “대통령 아들은 남”…김정화 “악취나는 말장난도 하루 이틀”</t>
+          <t>정권교체 다짐하는 윤석열 후보</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021.12.29 18:20</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>文 "특수학교 설립에 학부모 무릎 꿇지 않도록 할 것"</t>
+          <t>“유권자 56%, 양당후보 교체 필요”…지지율 李 42.4 尹 34.9 [한길리서치]</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021.12.29 18:19</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>尹선대위 갈등 해넘기나... 이준석 "합류 고려 안해"</t>
+          <t>국민의힘 경북 선대위 출범</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021.12.29 18:19</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>尹, TK서 탈원전 비판… "신한울 건설 재개"</t>
+          <t>윤석열 후보 'TK를 내 품에'</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021.12.29 18:19</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>국민의힘 "공수처, 윤석열 10회·김건희 7회 통신자료 조회"</t>
+          <t>野 이재명 아들 입시 부정 '묻지마 폭로'···與 반박에 8시간만 번복</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021.12.29 18:19</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>李-李 1호 공약은 '신복지'…"아동수당 18세까지 확대"</t>
+          <t>與 선대위, 이재명 자녀 부정입학 의혹 제기 "윤석열 사과하라"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021.12.29 18:19</t>
+          <t>2021.12.29 18:48</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>서욱 국방장관, 코로나19 전담 국군포천병원 현장 점검</t>
+          <t>내년 국가유공자 보상금 5% 인상…보훈대상 지원 강화</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021.12.29 18:19</t>
+          <t>2021.12.29 18:47</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>이재명, 이낙연과 첫 공개 일정 ‘지지층 결집’…부드러운 슬로건으로 2030 확장 나서</t>
+          <t>국민의힘 "尹 비방 조직적 댓글 징후"...내일 공개</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021.12.29 18:19</t>
+          <t>2021.12.29 18:46</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>발언하는 윤석열</t>
+          <t>특수학교 찾은 문대통령…"부모 무릎 꿇는 일 없어야"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021.12.29 18:18</t>
+          <t>2021.12.29 18:46</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>발언하는 윤석열</t>
+          <t>김종인, 이준석 만날까…"스스로 나갔으니 오면 오는 것"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021.12.29 18:18</t>
+          <t>2021.12.29 18:45</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>발언하는 윤석열</t>
+          <t>오후 6시까지 전국서 3천249명 확진…어제보다 460명 적어</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021.12.29 18:18</t>
+          <t>2021.12.29 18:44</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>발언하는 윤석열</t>
+          <t>송영길, 윤석열 겨냥 "외교에 무지...나라 맡기면 위험"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021.12.29 18:18</t>
+          <t>2021.12.29 18:41</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>발언하는 윤석열</t>
+          <t>이재명, 윤석열 TK 일정에 ‘김혜경’으로 맞불</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021.12.29 18:18</t>
+          <t>2021.12.29 18:41</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>공수처,윤석열ㆍ김건희 통신자료 조회…불법사찰 논란 확산</t>
+          <t>당정, 현행 거리두기 연장 무게… 업종별 미세조정 논의</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:40</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>복귀 선 그은 이준석, 전방위 압박한 野…김종인 “이번 주 만나” 김기현 “다 정리”</t>
+          <t>[단독] 윤석열 “文정부 법치시스템 붕괴… 공수처는 수사대상 전락”</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:40</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>윤석열 부부까지 턴 공수처 “영장에 기초” 두둔한 박범계</t>
+          <t>교복 입은 국회의원 탄생할까...출마연령 '18세 이상' 하향</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:40</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>조성은 “윤석열 검찰총장 임명한 文 대통령, 대국민 사과 해달라”</t>
+          <t>軍, 지난주 ‘독도방어훈련’ 비공개 실시</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021.12.29 18:16</t>
+          <t>2021.12.29 18:39</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>토론 부르짖던 이재명, 페미니즘 이유로 인터뷰 취소</t>
+          <t>윤석열 '경북 선대위 출범식'</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021.12.29 18:16</t>
+          <t>2021.12.29 18:37</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>李 "취득세 감면·보유세 유예" 尹 "보유세 통합·공시가 환원" [李-尹 부동산정책]</t>
+          <t>윤석열 '경북 선대위 출범식'</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021.12.29 18:15</t>
+          <t>2021.12.29 18:37</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>틀린 내용으로 李아들 의혹 제기한 국민의힘, "착오 유감"</t>
+          <t>TK찾은 윤석열, 박근혜엔 ‘했던 말’ 반복…‘탈원전’ 때리기에 집중</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021.12.29 18:15</t>
+          <t>2021.12.29 18:37</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>‘이재명은 합니다’ 대신 ‘나를 위해, 이재명’…슬로건에 담긴 이재명의 고민</t>
+          <t>이재명, 취득세 완화 공약에 "거래세 줄이자는 취지"</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021.12.29 18:14</t>
+          <t>2021.12.29 18:36</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>김혜경, 윤석열보다 하루 앞서 대구·경북 순회</t>
+          <t>'놀면 뭐하니' 나온 스피커 대체 뭐길래…국힘 "고발하겠다"</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021.12.29 18:14</t>
+          <t>2021.12.29 18:35</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>'이재명 자녀 입시의혹' 제기한 국힘, 전형·학과 틀렸다</t>
+          <t>'나를 위해, 이재명' 새 슬로건…윤, '탈원전' 비판</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021.12.29 18:14</t>
+          <t>2021.12.29 18:31</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>이재명 “취득세도 감면”…여야, 원칙 없는 부동산 감세 경쟁</t>
+          <t>하락 이어지는 尹, 상승 반전하는 李…다시 요동치는 판세</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021.12.29 18:13</t>
+          <t>2021.12.29 18:30</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>10배 늘어난 '답정너' 연구용역···정책, 산으로 간다</t>
+          <t>윤석열, 도산서원 방문</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021.12.29 18:13</t>
+          <t>2021.12.29 18:30</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>與 "국힘의 이재명 아들 허위사실 주장 책임 윤석열 직접 져야"</t>
+          <t>상가조합원 재건축 분담금 줄어든다…재초환법 법안소위 통과</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2021.12.29 18:09</t>
+          <t>2021.12.29 18:29</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>이준석, '성상납 의혹 제기' 강용석·김세의 고소</t>
+          <t>여야 의사일정 합의…31일 국회 본회의 소집</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2021.12.29 18:09</t>
+          <t>2021.12.29 18:29</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>이준석, ‘성접대 의혹 제기’ 가세연 명예훼손 혐의 고소</t>
+          <t>문 대통령 “특수학교 설립 위해 학부모들이 무릎꿇는 일 없도록 할 것”</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2021.12.29 18:09</t>
+          <t>2021.12.29 18:29</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Seoul, Washington agree on draft for end-of-war declaration: minister</t>
+          <t>'조복' 글귀 선물 받는 윤석열</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2021.12.29 18:08</t>
+          <t>2021.12.29 18:29</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>여야 의사일정 합의.. 31일 본회의 개의, 30일 공수처 불러 '통신조회' 질의</t>
+          <t>안동 찾은 우리공화당 "윤석열 후보 박근혜 대통령께 사과해야"</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2021.12.29 18:08</t>
+          <t>2021.12.29 18:28</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>김건희 '허위 경력' 수사 착수…'혜경궁 김씨' 다시 꺼낸 국힘</t>
+          <t>책자 선물 받는 윤석열</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2021.12.29 18:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>윤희숙 "이재명, 아들 성매매 의심받자 '남'이라고 버려"</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>'분명한 실패' 文 부동산 정책 비판 수위 올리는 이재명… 왜?</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>[만평] 평론가적 대선후보</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>국민의힘 “공수처, 윤석열 3회·김건희 1회 통신기록 불법 조회”</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>김혜경, TK 단독 행보… TK행 윤석열에 맞불</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>이재명 “부동산 정책 분명 실패”…취득세 완화 공약까지 내놨다</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>野, 李 아들 '입시 의혹' 공세…與 "팩트도 틀린 가짜뉴스" 법적 대응</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>이준석, 강용석·김세의 명예훼손으로 고소</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>여야, 31일 본회의 소집…내일 공수처 현안질의</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>송영길, 尹 향해 “한미일이 中에 대항해야 한다니, 외교 무지”</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>[강인선·배성규의 정치펀치] 안철수 “이재명과 연대하자고? 민주당 꿈 깨라!”</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>윤석열, 당 내홍 뒤로 한 TK행 무거운 발걸음…‘텃밭’ 다지기</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>쪼그라드는 금융산업···'성장판' 다시 열어라</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>문 대통령 8번 방문의 힘? PK서도 밀리는 尹</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>'TK 방문' 윤석열 “신한울 3·4호기 건설 즉각 재개하겠다”…탈원전 비판하며 반문 행보</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>제15차 재정관리점검회의</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>재정관리점검회의 주재하는 안도걸 차관</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>발언하는 안도걸 차관</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>발언하는 안도걸 차관</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>제15차 재정관리점검회의</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:00</t>
+          <t>2021.12.29 18:28</t>
         </is>
       </c>
     </row>

--- a/backend/data/100.xlsx
+++ b/backend/data/100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,720 +448,240 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>이재명 “생애 첫 주택 취득세 감면, 수도권 4억→6억 상향”</t>
+          <t>윤석열 `일일 셰프`로 변신, 이재명은 `청년 프러포즈`</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.29 19:01</t>
+          <t>2021.12.29 23:00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>'이낙연 신복지 공약' 이어받은 李… "삶의 질 OECD 15위로 올리겠다"</t>
+          <t>도산서원 찾아 퇴계 이황 선생의 정신 기린 윤석열 후보 [뉴시스Pic]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.29 19:01</t>
+          <t>2021.12.29 22:59</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>윤석열, 국민의힘 경북 선대위 출범식</t>
+          <t>이준석 "윤핵관 없다는 후보인식 안 바뀌면 변화 없을 것"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.29 19:01</t>
+          <t>2021.12.29 22:57</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>안동 찾은 국민의힘 윤석열 대선 후보 "제 처와 누이동생까지 사찰 당해" 공수처 비판</t>
+          <t>TK서 `분노 연설` 윤석열 "민주화 끼어든 좌익 이념집단, 정권잡고 국민약탈"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.29 19:01</t>
+          <t>2021.12.29 22:56</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[단독] 이재명, 새해 첫날 부산 찾는다... 신·구 권력 PK 공들이기</t>
+          <t>이재명 “‘조국의 강’ 폭 넓어…잘못은 잘못”</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.29 19:00</t>
+          <t>2021.12.29 22:48</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CIO went after phone records of Yoon, wife</t>
+          <t>전수미 화해평화연대 이사장, '北이탈주민 지원' 대통령 표창</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.29 18:58</t>
+          <t>2021.12.29 22:48</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>윤석열 "북한이론 배운 사람들이 국가 약탈"…민주 "색깔론 멈추라"</t>
+          <t>신혼절망타운, 개선 계획?…이재명 “100만 가구, 고품질 공공임대”</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.29 18:58</t>
+          <t>2021.12.29 22:47</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>윤석열 '김관용-김정재 경북 총괄선대위원장과 함께'</t>
+          <t>[포토] 강서구, 서울 미래교육협약</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.29 18:54</t>
+          <t>2021.12.29 22:47</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>참석자들 향해 인사하는 윤석열</t>
+          <t>정의용 “베이징올림픽서 남북관계 개선 사실상 어렵다”</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.29 18:54</t>
+          <t>2021.12.29 22:40</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>참석자들 향해 인사하는 윤석열</t>
+          <t>지지율 밀린 尹, '동네형' 집밥 만들며 이미지 반전</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.29 18:54</t>
+          <t>2021.12.29 22:35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>경북 선대위 출범식 참석한 윤석열 후보</t>
+          <t>일본, 한국군 독도방어훈련에 "독도는 日 고유영토…극히 유감" 항의</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.29 18:54</t>
+          <t>2021.12.29 22:35</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>윤석열 '경북 선대위 출범식 대선 승리 기원하며'</t>
+          <t>홍준표 “새해엔 유튜브 라이브 시작…다시 활동할 때 됐다”</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.29 18:54</t>
+          <t>2021.12.29 22:33</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>경북 선대위 출범식 참석한 윤석열</t>
+          <t>안철수, 양당 겨냥 "정권 교체 아닌 적폐 교대 안돼"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.29 18:54</t>
+          <t>2021.12.29 22:26</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>윤석열 '경북 선대위 출범식 대선 승리 기원하며'</t>
+          <t>[영상] 공세 수위 높이는 두 후보</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.29 18:54</t>
+          <t>2021.12.29 22:25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>윤석열 '경북 선대위 출범식 대선 승리 기원하며'</t>
+          <t>‘정권교체’ 응답 49.2%인데... 尹지지율은 29.3%</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.29 18:54</t>
+          <t>2021.12.29 22:23</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>윤석열 '대선 승리 기원 퍼포먼스'</t>
+          <t>野, 이재명 아들 입시 의혹 섣불리 제기했다가 8시간 만에 철회</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.29 18:54</t>
+          <t>2021.12.29 22:21</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>윤석열 '경북 선대위 출범식 대선 승리 기원하며'</t>
+          <t>'놀면 뭐하니' 고가 스피커 뭐길래···국힘 "고발하겠다"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.29 18:54</t>
+          <t>2021.12.29 22:20</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>윤석열 '대선 승리 기원 퍼포먼스'</t>
+          <t>연단을 '꽝'…윤석열, 분노의 연설 "곱게 정권내놓고 물러가라"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.29 18:54</t>
+          <t>2021.12.29 22:20</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>윤석열 '대선 승리 기원 퍼포먼스'</t>
+          <t>홍준표 "다시 활동할 때 됐다...새해 '홍카콜라' 재개"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.29 18:54</t>
+          <t>2021.12.29 22:16</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[포토]여야 의사일정 합의…31일 본회의 개의, 30일 공수처 통신조회 질의</t>
+          <t>[포토] 눈에 띄게 홀쭉해진 김정은</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.29 18:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>국힘 "박성제 배임" MBC "지나친 비판" 공방 이유는</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>통신3사 유료방송 매출점유율 90% 육박…방송시장 1.9% 성장</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>국민의힘 '대선 승리를 위해'</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>경북 찾은 윤석열 후보 '두 팔 번쩍'</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>국민의힘 경북 선대위 출범 '대선 승리 다짐'</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>정권교체 외치는 윤석열 후보와 국민의힘 경북도당</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>경북도당 선대위 출범식 참석한 윤석열 후보</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>윤석열 후보 '함께 바꿉시다'</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>안동 찾은 윤석열 후보 '두 팔 번쩍'</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>정권교체 다짐하는 윤석열 후보</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>“유권자 56%, 양당후보 교체 필요”…지지율 李 42.4 尹 34.9 [한길리서치]</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>국민의힘 경북 선대위 출범</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>윤석열 후보 'TK를 내 품에'</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>野 이재명 아들 입시 부정 '묻지마 폭로'···與 반박에 8시간만 번복</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>與 선대위, 이재명 자녀 부정입학 의혹 제기 "윤석열 사과하라"</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>내년 국가유공자 보상금 5% 인상…보훈대상 지원 강화</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>국민의힘 "尹 비방 조직적 댓글 징후"...내일 공개</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>특수학교 찾은 문대통령…"부모 무릎 꿇는 일 없어야"</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>김종인, 이준석 만날까…"스스로 나갔으니 오면 오는 것"</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>오후 6시까지 전국서 3천249명 확진…어제보다 460명 적어</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>송영길, 윤석열 겨냥 "외교에 무지...나라 맡기면 위험"</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>이재명, 윤석열 TK 일정에 ‘김혜경’으로 맞불</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>당정, 현행 거리두기 연장 무게… 업종별 미세조정 논의</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>[단독] 윤석열 “文정부 법치시스템 붕괴… 공수처는 수사대상 전락”</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>교복 입은 국회의원 탄생할까...출마연령 '18세 이상' 하향</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>軍, 지난주 ‘독도방어훈련’ 비공개 실시</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>윤석열 '경북 선대위 출범식'</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>윤석열 '경북 선대위 출범식'</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>TK찾은 윤석열, 박근혜엔 ‘했던 말’ 반복…‘탈원전’ 때리기에 집중</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>이재명, 취득세 완화 공약에 "거래세 줄이자는 취지"</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>'놀면 뭐하니' 나온 스피커 대체 뭐길래…국힘 "고발하겠다"</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>'나를 위해, 이재명' 새 슬로건…윤, '탈원전' 비판</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>하락 이어지는 尹, 상승 반전하는 李…다시 요동치는 판세</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>윤석열, 도산서원 방문</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>상가조합원 재건축 분담금 줄어든다…재초환법 법안소위 통과</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>여야 의사일정 합의…31일 국회 본회의 소집</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>문 대통령 “특수학교 설립 위해 학부모들이 무릎꿇는 일 없도록 할 것”</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>'조복' 글귀 선물 받는 윤석열</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>안동 찾은 우리공화당 "윤석열 후보 박근혜 대통령께 사과해야"</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>책자 선물 받는 윤석열</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:28</t>
+          <t>2021.12.29 22:16</t>
         </is>
       </c>
     </row>

--- a/backend/data/100.xlsx
+++ b/backend/data/100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,240 +448,2640 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>윤석열 `일일 셰프`로 변신, 이재명은 `청년 프러포즈`</t>
+          <t>"미친 사람" "중범죄자" 대구서 더 거칠어진 윤석열의 '입' (종합)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.29 23:00</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>도산서원 찾아 퇴계 이황 선생의 정신 기린 윤석열 후보 [뉴시스Pic]</t>
+          <t>"통신조회는 수사 기본, 검·경은 더 많이 한다"… 김진욱, 사찰 논란 '선 긋기'</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.29 22:59</t>
+          <t>2021.12.30 17:32</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>이준석 "윤핵관 없다는 후보인식 안 바뀌면 변화 없을 것"</t>
+          <t>이재명 "미중 갈등, 우리가 왜 선택하나...그들이 우리에게 오게 할 것"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.29 22:57</t>
+          <t>2021.12.30 17:31</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TK서 `분노 연설` 윤석열 "민주화 끼어든 좌익 이념집단, 정권잡고 국민약탈"</t>
+          <t>안철수 “초격차 과학기술이 살 길, AI 반도체 투자 늘려야”</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.29 22:56</t>
+          <t>2021.12.30 17:31</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>이재명 “‘조국의 강’ 폭 넓어…잘못은 잘못”</t>
+          <t>민주당, 거칠어진 '윤석열 입' 집중포화 속 내심 미소 짓는다</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.29 22:48</t>
+          <t>2021.12.30 17:31</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>전수미 화해평화연대 이사장, '北이탈주민 지원' 대통령 표창</t>
+          <t>정권심판론보다 국정안정론이 높아졌다?···안도·포기할 수 없는 여야, 왜?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.29 22:48</t>
+          <t>2021.12.30 17:31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>신혼절망타운, 개선 계획?…이재명 “100만 가구, 고품질 공공임대”</t>
+          <t>대선 캠프가 보는 연말 판세…李-尹, 어디쯤 서 있나</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.29 22:47</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[포토] 강서구, 서울 미래교육협약</t>
+          <t>與 당무위, 복당자 지방선거·총선 출마시 '패널티 예외' 의결</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.29 22:47</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>정의용 “베이징올림픽서 남북관계 개선 사실상 어렵다”</t>
+          <t>윤석열, '지지율 하락' 질문에 "글쎄, 잘 모르겠다"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.29 22:40</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>지지율 밀린 尹, '동네형' 집밥 만들며 이미지 반전</t>
+          <t>Hana Bank president summoned as witness in Daejang-dong scandal</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.29 22:35</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>일본, 한국군 독도방어훈련에 "독도는 日 고유영토…극히 유감" 항의</t>
+          <t>[12/30(목) 데일리안 퇴근길 뉴스] 윤석열 "무릎 꿇고 살기보다 서서 죽겠다" 등</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.29 22:35</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>홍준표 “새해엔 유튜브 라이브 시작…다시 활동할 때 됐다”</t>
+          <t>송영길 휠체어 민 천정배 "다시 돌아와 뭉클"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.29 22:33</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>안철수, 양당 겨냥 "정권 교체 아닌 적폐 교대 안돼"</t>
+          <t>허경영 "2030은 내 편…젊은 세대가 나를 대통령 만들어 줄 것"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.29 22:26</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[영상] 공세 수위 높이는 두 후보</t>
+          <t>이용수 할머니와 대화하는 김혜경 씨</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.29 22:25</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>‘정권교체’ 응답 49.2%인데... 尹지지율은 29.3%</t>
+          <t>이용수 할머니와 대화하는 김혜경 씨</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.29 22:23</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>野, 이재명 아들 입시 의혹 섣불리 제기했다가 8시간 만에 철회</t>
+          <t>[영상] '정치 10년' 安 지지율 꿈틀…10% 넘기면 대선판 흔들</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.29 22:21</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>'놀면 뭐하니' 고가 스피커 뭐길래···국힘 "고발하겠다"</t>
+          <t>통일부 달력에 김정일 생일, 설날과 동급 ‘빨간색’… 국민의힘 “이인영 사과하라”</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.29 22:20</t>
+          <t>2021.12.30 17:28</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>연단을 '꽝'…윤석열, 분노의 연설 "곱게 정권내놓고 물러가라"</t>
+          <t>“이거 미친 사람들 아닙니까” 윤석열, 공수처 통신조회 맹비판</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.29 22:20</t>
+          <t>2021.12.30 17:28</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>홍준표 "다시 활동할 때 됐다...새해 '홍카콜라' 재개"</t>
+          <t>사찰 DNA 없다고 자신하던 청와대, 공수처 사찰 논란엔 침묵</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.29 22:16</t>
+          <t>2021.12.30 17:28</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[포토] 눈에 띄게 홀쭉해진 김정은</t>
+          <t>野 비단주머니 ‘크라켄’, 윤석열 비방 조직적 댓글 964개 잡았다</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.29 22:16</t>
+          <t>2021.12.30 17:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>외교부, 해양법 재판관 후보에 이자형 국제법률국장 지명</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>윤석열, ‘통신조회’ 공수처에 “미친 사람들 아니냐”</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>이동학 "박근혜 사면, 울고 싶은 마음... 납득 어려웠다" [이영광의 거침없이 묻는 인터뷰]</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>국민의힘 “무차별적 사찰”vs김진욱 공수처장 “합법”…법사위 ‘통신조회’ 두고 여야 공방</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>여야, 법사위서 공수처 ‘통신 조회’ 충돌…“불법 사찰” vs “정치 공세”</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>정부 광고 핵심지표 열독률 보니… 조·중·동·한겨레 등 13개사 ‘1구간’</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>서울시의회, 서울농수산식품공사 사장 후보자 청문보고서 채택</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>심상정·김동연 “尹, 李와 못하겠으면 나와 토론”</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>인천시의료원 방문한 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>인천시의료원 방문한 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>인천시의료원 방문한 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>의료진과 기념 촬영하는 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>인구 126만명 '2035년 고양도시기본계획' 경기도 승인</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>김 총리, '메타버스'서 청년정책조정위 민간위원 활동보고회</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>인천시의료원 의료진 고충 듣는 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>[천안소식] 박상돈 천안시장 명예 해병 됐다</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>인천시의료원 음압병동 방문한 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>인천시의료원 음압병동 방문한 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>인천시의료원 현황 청취하는 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>인천시의료원 방문한 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>김종인 “반문 전략 없다···끝난 정권 이야기해봐야 의미 없어”</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>野 내홍속 與는 대통합 가속…이재명,안보 행보로 중도층 겨냥</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>윤석열 후보 "국가유공자 참전수당 2배 인상 일류보훈 국가 만들것"</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>두 손 들어 화답하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>다부동 전적기념관 찾은 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>윤석열 "일류보훈 국가 만들겠다"</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>칠곡 '6·25 전투지' 찾은 尹 "전투 나섰던 청년들 마음으로 정치"</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>6.25 최대 격전지 다부동 전적기념관 찾은 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>참배하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>발걸음 옮기는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>윤석열 후보 '지지자들에게 두 팔 벌려 인사'</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>윤석열 후보 '밝은 표정으로 화답'</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>두 팔 벌려 인사하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>천정배·유성열·민병두 등 민주당 복당…송영길 "함께 모였다"</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>배현진, 소아암 어린이 환우 치료비 지원 1000만원 기부</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>[오뉴스 출연] 심판론 뒤집은 안정론 (김형준 명지대 교수)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>대장동 지역구 김은혜 의원 "이재명 후보, `어게인 대장동`이라니…두렵다"</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>靑 NSC, 글로벌 기술 보호 대책 논의</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>[단독] 朴 옥중서신엔 "거짓 빠진 사람이 나랏일 맡을순 없다"</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>윤석열 "처-동생-친구까지 사찰"···"공수처, 부정 선거 자행" 압박</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>[신년사] 노정희 중앙선관위원장 "공정한 대선 관리…사회통합 기여할 것"</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>다부동 전적기념관 찾은 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>[동정] 권덕철 복지장관, 서울아산병원 의료진과 간담회</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>주한미군 일주일간 코로나19 확진 467명 폭증…"역대 최다"</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>안철수 후보로 갈아탄 2030</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>윤석열 후보 '자유 민주 국가 확실히 지키겠다"</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>윤석열 "文정부 北 눈치 보기로 안보태세 엉망"</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>윤석열 "文정부 안보 무능"</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>윤석열 후보 "참전용사 국가의 책임과 예우 강화"</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>윤석열 후보 반기는 경북 지지자들</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>윤석열 후보 "일류 보훈국가 만들것"</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>윤석열 '두 팔 번쩍'</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>"의도적 대선 개입"… 野, 법사위서 '통신조회' 공수처장 추궁</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>尹, 벌어지는 지지율 격차 타개책 있나</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>이재명, TK 찾은 김혜경 칭찬 "결혼 잘했다는 생각 더욱 더 들어"</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>尹, 대구 신산업 현장 방문…"로봇세, 말이 안 되는 이야기"</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>"서서 죽겠다" "미친사람들"…尹 연일 초강경 발언, 왜?</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>李 "그린벨트 풀어 주택공급, 유연하게 고민"</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>세밑에도 여야 공방 지속…상대 후보 네거티브 최고조</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>박병석 국회의장, 수석 위원 인사</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>[노컷브이]윤석열 '막말 논란' 커지는데…김종인 "무슨 실수했나"</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>칠곡 방문해 지지자들에게 발언하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>윤석열 후보가 다부동 전적기념관 방문해 남긴 방명록</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>윤석열, '24시간 영업' 카페 압수수색에 "어디 무서워서 살겠나"</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>구국용사충혼비에 헌화하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>구국용사충혼비 참배하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>구국용사충혼비 참배하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>칠곡 찾은 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>윤석열 후보, 구국용사충혼비 참배</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>구국경찰충혼비 참배하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>윤석열 후보, 구국용사충혼비 참배</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>다부동 전적기념관 찾은 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>칠곡 찾은 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>칠곡 찾은 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>구국용사충혼비 참배하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>구국용사충혼비 참배 마친 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>지지자들에게 인사하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>지지자들 향해 인사하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>경북 칠곡 방문한 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>지지자들에게 인사하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>경북 칠곡 방문한 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>안철수, 코로나19 관련 삼성바이오로직스 방문 [TF사진관]</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>尹 “영업 제한 안따른 자영업자 압수수색이라니, 눈물 안보이나”</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>탈당 전직 의원들 민주당 대거 입당···일부 지지자들 달래기는 숙제</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>길어지는 국민의힘 내홍…'울산 회동' 재연될까?</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>오산 공군부대 병사 1명 오미크론 변이 추가 확인‥군 내 4명 감염</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>내년부터 입양축하금 200만원·입양아동 양육수당 월20만원 지급</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>통일부 달력에 '김일성 생일' 기재…野 "기념일까지 챙겨줄 건가"</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>尹 "공수처 미친 사람들"…李 "윤석열 검찰도 조회"</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>천정배 등 탈당인사 10명 민주당 복당</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>민주당 돌아온 천정배 전 의원</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>천정배 등 '호남 비문계' 10명 민주당 복당</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>박근혜 오늘 자정 사면 복권…당분간 입원 치료 예정</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>인사말하는 유성엽 전 의원</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>환영 꽃다발 받는 천정배</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>민주당 돌아온 유성엽</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>민주 선대위, 미디어·ICT 특별위 출범…MZ세대·전문가 포함</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>'김건희 겨냥' 현수막 서울 도심 곳곳 등장‥구청 수거 나서</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>지방 부흥 적임자…이재명 40.2%, 윤석열 36.8% [한신협 여론조사]</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>유성엽 전 의원과 기념촬영하는 송영길 대표</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>김종민 "통신 사찰로 공수처장 구속시키면 윤석열은 무기징역감"</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>입당인사들과 기념촬영하는 송영길 대표</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>입당사하는 천정배 전 의원</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>천정배 전 의원에게 꽃다발 전달하는 송영길 대표</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>입당사하는 천정배 전 의원</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>입당인사들과 기념촬영하는 송영길 대표</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>천정배 전 의원과 기념촬영하는 송영길 대표</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>입당사하는 유성엽 전 의원</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>환영사하는 송영길 대표</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>더불어민주당 입당식</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>송영길 대표 휠체어 밀며 입당식 참석하는 천정배 전 의원</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>靑 NSC 상임위 개최…글로벌 기술보호 대책 논의</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>국민 65% ‘朴 사면’ 잘한 결정…민주당 지지층 절반도 찬성 [한신협 여론조사]</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>文정부 각세우며 연정 띄우는 李…"좋은 인재라면 안 가려"(종합2보)</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>윤석열, 방역지침 어긴 매장 압수수색에 "국민만 만만한 것"</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>현대차 인증중고차 나오나…내달 생계형 적합업종 심의위 개최(종합)</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>이상민 "송영길, 안철수 연대하려면 사전 준비했어야…뜬금없이 러브콜"</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>민주당 돌아온 천정배</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>“이런 영부인 괜찮습니까?” 김건희 비판 불법 현수막, 결국 철거</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>국민의힘 35.3% 민주당 30.6%…“후보 가족 문제, 투표 영향” 53.6% [한신협 여론조사]</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>김종인 "윤석열·이재명 토론? 무조건 거부 아니지만…"</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>다부동 구국경찰충혼비 참배하는 윤석열</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>윤석열, "자유민주주의를 지키겠습니다"</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>윤석열, 다부동 전적기념관 방명록</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>법사위, '통신조회' 논란 현안 질의…"과도한 것 아냐"</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>공수처 “검·경도 조회했는데 왜 우리만 ‘불법사찰‘이라 하느냐”</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>[영상]신당 창당 후 이준석 제거?…연일 '김한길發 정계개편' 견제하는 김종인</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>윤석열-김종인, '토론 거부' 놓고 엇박자</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>"공수처장 구속 수사" 윤석열, 2017년에는 "통신 조회 사찰 아냐"</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>부울경 지지율…윤석열 45.7%, 이재명 35.2% [한신협 여론조사]</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>이재명, 서해5도 경비단 찾아 "중국의 불법 조업, 원칙적 대응 필요" [TF사진관]</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>"석방이 시작입니다" 박근혜 입원 병원앞 뒤덮은 1000개 화환</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>문 대통령 지지율 연중 최고치… 청와대 "위기극복 노력 인정받았다"</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>국힘 "野 대선후보 사찰이 文 검찰개혁 '민낯'…대선개입"</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>지지자들 향해 인사하는 윤석열 대선후보</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>지지자들 향해 인사하는 윤석열 대선후보</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>오산 공군부대 오미크론 확진 1명 추가...軍 전체 누적 4명</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>다부동 전적기념관 찾은 윤석열</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>지지자들 향해 인사하는 윤석열 대선후보</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>[뉴스큐] 박근혜, 오늘 자정 석방...李·尹 지지율 요동</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>李, 서해 5도 찾아 "영토주권 수호" 안보 강조.. 새해 첫 날 '부산행'</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>李 “北에 할 말은 하겠다”… 대북정책도 文정부와 차별화</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>다부동 전적기념관 구국용사충혼비 참배하는 윤석열</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>인사하는 윤석열 대선후보</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>與, 공수처 논란에 "적법수사" 방어막…'윤로남불' 역공도</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>윤석열, 다부동 전적기념관 구국용사충혼비 참배</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>[사사건건] 이재명 “분노의 언어보다 희망의 언어 써달라”</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>지지자들 향해 인사하는 윤석열 대선후보</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>이재명 "산모·아이 돌봄 지원 받도록…공공산후조리원 대폭 확충"</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>대선 후보 지지율  ‘서이동윤(西李東尹)’ 현상 뚜렷 [한신협 여론조사]</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>지지자들 향해 인사하는 윤석열 대선후보</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>천정배 등 호남계 비문 與 복당…송영길 "귀한 동지들"</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>지지자들 향해 인사하는 윤석열 대선후보</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>"尹 '무릎 꿇느니 서서 죽겠다' 발언 무게 아는가"…與 "삭제하라"</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>지지자들 향해 인사하는 윤석열 대선후보</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>내년부터 입양축하금 200만원·입양아동 양육수당 월20만원 지급</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>천정배·유성엽 등 12명 민주당 입당… 다음 달 17일까지 복당 허용</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>여야 모두 야당 땐 ‘사찰’ 주장…통신자료 제공 법개정해야</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>이재명, 서해5도 경비단 찾아 "불법 어업 무력 저항에 무관용 강경 대응 필요"</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>호남계 '비문' 인사들 민주당 복당</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>여명 "신지예, 윤석열 지지율 하락 원인…중도·2030에 변수"</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>이재명 “예비내각 생각, 통합정부도” 윤석열 “정권교체 안 하면 당 뿌리뽑혀”</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>로봇 산업 강조한 윤석열, ‘로봇세’ 묻자 “말도 안 되는 얘기”</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>'호남계 비문' 유성엽, 민주당 복당</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>신지예 "성폭력 종식시키기 위한 유일한 후보는 윤석열"</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>'호남계 비문' 천정배, 민주당 복당</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>정권 교체 50.9%, 정권 재창출 39.2% [한신협 여론조사]</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>與 이상민 "공수처 통신조회, 법적 요건 충족했는지 의문"</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>윤석열, 다부동 전적기념관 구국용사충혼비 참배</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>더불어민주당으로 돌아온 천정배</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>천정배 등 '호남 비문계' 민주당 복당</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>'호남 비문계' 천정배 등 민주당 복당</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>[사사건건] 국민의힘 의총, 마이크 잡은 공수처장</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>윤석열, 다부동 전적기념관 구국용사충혼비 참배</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>전북 김광수·유성엽·김종회·김세웅 전 의원, 민주당 복당</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>다부동 전적기념관 구국용사충혼비 참배하는 윤석열</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>다부동 전적기념관 구국용사충혼비 참배하는 윤석열</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>[이슈폴폴] 여론조사로 풀어 보는 정치…12월 다섯째주 민심은?</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>천정배 등 호남계 12명, 민주당 복당</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>구국용사충혼비에 헌화하는 윤석열</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>[노컷브이]공수처장 불러놓고는 입막는 '복도 의총' 국힘</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>이재명 39.4, 윤석열 39.5 ‘초박빙’…한신협 여론조사</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>더불어민주당 입당식</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>천정배 전 의원에게 꽃다발 전하는 송영길 당대표</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>천정배 전 의원 등 민주당 입당</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>더불어민주당 입당식</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>민주당 입당사하는 천정배 전 의원</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>더불어민주당 입당식</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>입장하는 송영길-천정배</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>민주당 입당사하는 유성엽 전 의원</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>환영사하는 송영길 민주당 대표</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>인사나누는 송영길 대표와 유성엽 전 의원</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>천정배 전 의원 등 민주당 입당</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>공수처 논란에 이재명 “사찰 아니다” 윤석열 “미친 사람들”</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>“공수처 대선개입” vs “사찰 아니고 야당 내로남불”…법사위 여야 충돌</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>문 대통령, 다음 달 3일 마지막 신년사</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>윤석열-이재명 대선후보 0.1%P 격차로 초접전…박근혜 사면 ‘잘된 결정’ 65.8%</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>[인사] 질병관리청</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>[르포]“윤석열 사죄해야” vs “그래도 윤석열”…복잡한 대구 민심</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>靑 "공수처 통신 조회 논란‥靑 언급 부적절"</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2021.12.30 16:57</t>
         </is>
       </c>
     </row>

--- a/backend/data/100.xlsx
+++ b/backend/data/100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B221"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,2640 +448,1440 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>"미친 사람" "중범죄자" 대구서 더 거칠어진 윤석열의 '입' (종합)</t>
+          <t>정부 ‘李 종부세 일부 완화’ 긍정 검토… 양도세 유예는 반대</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:02</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>"통신조회는 수사 기본, 검·경은 더 많이 한다"… 김진욱, 사찰 논란 '선 긋기'</t>
+          <t>‘尹 이탈표’ 흡수한 安… 몸값 올라 대선 변수로</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:02</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>이재명 "미중 갈등, 우리가 왜 선택하나...그들이 우리에게 오게 할 것"</t>
+          <t>뜻 안 굽히는 이준석 “선대위 복귀 없다”</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 18:02</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>안철수 “초격차 과학기술이 살 길, AI 반도체 투자 늘려야”</t>
+          <t>독해진 윤석열 “공수처, 미친 사람들”… TK 텃밭선 ‘친박 껴안기’</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 18:02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>민주당, 거칠어진 '윤석열 입' 집중포화 속 내심 미소 짓는다</t>
+          <t>윤석열 “새해, 국민이 행복한 대한민국 열겠다”</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>정권심판론보다 국정안정론이 높아졌다?···안도·포기할 수 없는 여야, 왜?</t>
+          <t>[신년사] 윤석열 "국민이 행복한 새로운 대한민국 길 열겠다"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>대선 캠프가 보는 연말 판세…李-尹, 어디쯤 서 있나</t>
+          <t>[사진] 돌아온 문화대혁명?···中 방역위반자 공개망신</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>與 당무위, 복당자 지방선거·총선 출마시 '패널티 예외' 의결</t>
+          <t>[신년사] 윤석열 "어려웠던 시간…공정·상식 바로 서는 나라 만들겠다"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>윤석열, '지지율 하락' 질문에 "글쎄, 잘 모르겠다"</t>
+          <t>남편 대신 TK 순회…이재명 "작은 목소리도 들려줘…결혼 잘했다 생각 들어"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hana Bank president summoned as witness in Daejang-dong scandal</t>
+          <t>윤석열 “국민이 행복한 새 대한민국 열 것”[신년사]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[12/30(목) 데일리안 퇴근길 뉴스] 윤석열 "무릎 꿇고 살기보다 서서 죽겠다" 등</t>
+          <t>文 "코로나 일시적 아냐…병상 확보 지속 가능해야"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>송영길 휠체어 민 천정배 "다시 돌아와 뭉클"</t>
+          <t>김진욱 "검찰·경찰도 많이 하는데 왜 공수처만 사찰인가"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>허경영 "2030은 내 편…젊은 세대가 나를 대통령 만들어 줄 것"</t>
+          <t>공수처 '통신조회' 전면전.. 野 "제2의 정치검찰" vs 공수처 "고발사주 수사"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>이용수 할머니와 대화하는 김혜경 씨</t>
+          <t>신년사하는 국민의힘 윤석열 대선후보</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>이용수 할머니와 대화하는 김혜경 씨</t>
+          <t>신년사하는 국민의힘 윤석열 대선후보</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[영상] '정치 10년' 安 지지율 꿈틀…10% 넘기면 대선판 흔들</t>
+          <t>[만파식적] 웨이모</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>통일부 달력에 김정일 생일, 설날과 동급 ‘빨간색’… 국민의힘 “이인영 사과하라”</t>
+          <t>[신년사] 이재명 "혁명적 변화 기로…도약하는 원년 될 것"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.30 17:28</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>“이거 미친 사람들 아닙니까” 윤석열, 공수처 통신조회 맹비판</t>
+          <t>윤석열의 새해 메시지… "국민이 행복한 대한민국 열겠다"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.30 17:28</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>사찰 DNA 없다고 자신하던 청와대, 공수처 사찰 논란엔 침묵</t>
+          <t>[신년사] 윤석열 "공정과 정의 실종…새로운 대한민국의 길 열겠다"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.30 17:28</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>野 비단주머니 ‘크라켄’, 윤석열 비방 조직적 댓글 964개 잡았다</t>
+          <t>[신년사] 윤석열 "공정과 정의 실종…새로운 대한민국 길 열겠다"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.30 17:28</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>외교부, 해양법 재판관 후보에 이자형 국제법률국장 지명</t>
+          <t>윤석열 국민의힘 대선 후보 자필 신년메시지</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021.12.30 17:28</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>윤석열, ‘통신조회’ 공수처에 “미친 사람들 아니냐”</t>
+          <t>윤석열 국민의힘 대선 후보 영상 신년사 발표</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>이동학 "박근혜 사면, 울고 싶은 마음... 납득 어려웠다" [이영광의 거침없이 묻는 인터뷰]</t>
+          <t>윤석열 국민의힘 대선 후보 영상 신년사 발표</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>국민의힘 “무차별적 사찰”vs김진욱 공수처장 “합법”…법사위 ‘통신조회’ 두고 여야 공방</t>
+          <t>[신년사]윤석열 "임인년 희망의 태양 솟아…국민 행복 함께 열자"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>여야, 법사위서 공수처 ‘통신 조회’ 충돌…“불법 사찰” vs “정치 공세”</t>
+          <t>靑NSC "北전원회의 개최 등 한반도 동향 면밀히 점검"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021.12.30 17:26</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>정부 광고 핵심지표 열독률 보니… 조·중·동·한겨레 등 13개사 ‘1구간’</t>
+          <t>김혜경, 이용수 할머니 대구 자택 찾아…사흘째 TK 행보(종합)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021.12.30 17:26</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>서울시의회, 서울농수산식품공사 사장 후보자 청문보고서 채택</t>
+          <t>NSC 상임위 개최…北 전원회의 관련 동향 점검</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021.12.30 17:26</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>심상정·김동연 “尹, 李와 못하겠으면 나와 토론”</t>
+          <t>[포토] 뉴코리아전자통신 양천구 성금 전달</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021.12.30 17:26</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>인천시의료원 방문한 안철수 대선후보</t>
+          <t>[속보] '코로나 병상 총동원' 병원장들 "보상 필요"...文 "검토하라"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>인천시의료원 방문한 안철수 대선후보</t>
+          <t>문 대통령, 병상 확보 간담회…"의료진 감당할 수 있는 대책 수립해야"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>인천시의료원 방문한 안철수 대선후보</t>
+          <t>지난 일주일간 주한미군 코로나19 확진자 467명으로 최다</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>의료진과 기념 촬영하는 안철수 대선후보</t>
+          <t>오산 공군 부대 오미크론 확진 1명 추가…군 내 4명 감염</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>인구 126만명 '2035년 고양도시기본계획' 경기도 승인</t>
+          <t>靑 NSC “북한 중앙위 전원회의 등 한반도 동향 면밀 점검”</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>김 총리, '메타버스'서 청년정책조정위 민간위원 활동보고회</t>
+          <t>"새 대통령 최우선 과제는 경제성장"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>인천시의료원 의료진 고충 듣는 안철수 대선후보</t>
+          <t>"투쟁' 강조한 윤석열, 공수처장 향해 "즉각 구속수사해야, 백주 대낮에 거리 활보"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[천안소식] 박상돈 천안시장 명예 해병 됐다</t>
+          <t>[포토] 영등포구, 유니세프 아동친화도시 인증 선포식</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>인천시의료원 음압병동 방문한 안철수 대선후보</t>
+          <t>'탈시설 장애인' 자립 돕는다…복지부, 내년부터 시범사업</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>인천시의료원 음압병동 방문한 안철수 대선후보</t>
+          <t>[인사] 전남 순천시</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>인천시의료원 현황 청취하는 안철수 대선후보</t>
+          <t>국민의힘 "무차별적 불법 사찰"…공수처장 "왜 우리만 갖고"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>인천시의료원 방문한 안철수 대선후보</t>
+          <t>서울시 예산안 놓고 시의회 내부 이견…연내 처리 무산되나</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>김종인 “반문 전략 없다···끝난 정권 이야기해봐야 의미 없어”</t>
+          <t>문 대통령 "코로나, 일시적 감염병 아냐…긴 안목으로 준비해야"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>野 내홍속 與는 대통합 가속…이재명,안보 행보로 중도층 겨냥</t>
+          <t>20대 지지 윤석열 9.5% 안철수 18.9%…2030 표심 출렁인다</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>윤석열 후보 "국가유공자 참전수당 2배 인상 일류보훈 국가 만들것"</t>
+          <t>이재명 "윤석열, 분노의 언어보다 희망의 언어 써주길"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>두 손 들어 화답하는 윤석열 후보</t>
+          <t>공수처장 "검·경도 통신조회...공수처만 왜 사찰이냐"</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>다부동 전적기념관 찾은 윤석열 후보</t>
+          <t>오늘 밤 석방되는 박근혜…대선판에 파장 일으킬까</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>윤석열 "일류보훈 국가 만들겠다"</t>
+          <t>합참의장, 파병부대에 "오미크론 방역 대책 마련" 지시</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>칠곡 '6·25 전투지' 찾은 尹 "전투 나섰던 청년들 마음으로 정치"</t>
+          <t>김진욱 "검경도 조회했는데 공수처만 사찰이냐…윤석열 영장은 아냐"(종합)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6.25 최대 격전지 다부동 전적기념관 찾은 윤석열 후보</t>
+          <t>NSC, 北 전원회의 개최 등 한반도 관련 동향 점검</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>참배하는 윤석열 후보</t>
+          <t>규제에 지친 국민들…"주택세금 줄이고, 기업자유 늘려라"</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>발걸음 옮기는 윤석열 후보</t>
+          <t>안철수 “백신패스 적용하는 곳에선 영업시간 제한 풀어야”</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>윤석열 후보 '지지자들에게 두 팔 벌려 인사'</t>
+          <t>청와대 NSC 상임위 개최... 핵심기술 보호 방안 등 논의</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>윤석열 후보 '밝은 표정으로 화답'</t>
+          <t>윤석열, 최재형과 ‘신년회동’… 洪은 여전히 ‘거리두기’</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>두 팔 벌려 인사하는 윤석열 후보</t>
+          <t>외면받는 탈원전…원전 '확대·유지' 70% 넘어</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>천정배·유성열·민병두 등 민주당 복당…송영길 "함께 모였다"</t>
+          <t>[인사] 산업통상자원부</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>배현진, 소아암 어린이 환우 치료비 지원 1000만원 기부</t>
+          <t>文정부 임기 5년 잘한 일…"없다" "모른다" 과반수</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>[오뉴스 출연] 심판론 뒤집은 안정론 (김형준 명지대 교수)</t>
+          <t>역대급 가족 논란 대선…국민 41% 표심 바뀔라</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>대장동 지역구 김은혜 의원 "이재명 후보, `어게인 대장동`이라니…두렵다"</t>
+          <t>李 "비정규직도 나쁘지 않아"…文과 차별화</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>靑 NSC, 글로벌 기술 보호 대책 논의</t>
+          <t>안철수 두자릿수 육박…몸값 오르는 제3지대</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>[단독] 朴 옥중서신엔 "거짓 빠진 사람이 나랏일 맡을순 없다"</t>
+          <t>공수처 논란에 걸음 꼬인 이재명…“조국의 강 건너려는데 강폭 넓어”</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>윤석열 "처-동생-친구까지 사찰"···"공수처, 부정 선거 자행" 압박</t>
+          <t>文 "코로나 일시적 감염병 아냐...의료진이 감당할 대책 나와야"</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>[신년사] 노정희 중앙선관위원장 "공정한 대선 관리…사회통합 기여할 것"</t>
+          <t>文대통령 "코로나 일시적 감염병 아냐…긴 안목 근본 대책 준비"</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>다부동 전적기념관 찾은 윤석열 후보</t>
+          <t>尹 "李공약은 부도어음…'문재명' 맞서 정권교체"</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>[동정] 권덕철 복지장관, 서울아산병원 의료진과 간담회</t>
+          <t>野 "조직적 尹 비방댓글 징후"</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>주한미군 일주일간 코로나19 확진 467명 폭증…"역대 최다"</t>
+          <t>친박단체 "尹 지지…미안하다 했으니 이젠 정권교체"</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>안철수 후보로 갈아탄 2030</t>
+          <t>文, 내달 3일 마지막 신년사</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>윤석열 후보 '자유 민주 국가 확실히 지키겠다"</t>
+          <t>文대통령, 공공의료 관계자와 병상확보 간담회…노고 치하</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>윤석열 "文정부 北 눈치 보기로 안보태세 엉망"</t>
+          <t>문재인 대통령 "병상 확보, 의료진 감당할 수 있는 대책 수립돼야"</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>윤석열 "文정부 안보 무능"</t>
+          <t>천정배·유성엽 등 '탈당파' 비문 받아들이기 시작한 민주당···여권 대통합 시동</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>윤석열 후보 "참전용사 국가의 책임과 예우 강화"</t>
+          <t>NSC상임위 개최…北 전원회의 관련 동향 점검</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:47</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>윤석열 후보 반기는 경북 지지자들</t>
+          <t>천정배 등 옛 호남계 非文 대거 민주당 복당</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:47</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>윤석열 후보 "일류 보훈국가 만들것"</t>
+          <t>오늘의 레이더P 뉴스 (12월 31일)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:47</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>윤석열 '두 팔 번쩍'</t>
+          <t>천정배·유성엽 등 호남계 비문 복당…민주당 원팀 순항</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:47</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>"의도적 대선 개입"… 野, 법사위서 '통신조회' 공수처장 추궁</t>
+          <t>野 "무차별 불법사찰"…김진욱 "왜 공수처만 문제 삼나"</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:47</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>尹, 벌어지는 지지율 격차 타개책 있나</t>
+          <t>남양주시, 4곳 청소년공간 '펀그라운드' 조성 박차</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:47</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>이재명, TK 찾은 김혜경 칭찬 "결혼 잘했다는 생각 더욱 더 들어"</t>
+          <t>이재명, '여권 대통합' 속도…천정배 등 호남계 비문 12인 與 복당</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:46</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>尹, 대구 신산업 현장 방문…"로봇세, 말이 안 되는 이야기"</t>
+          <t>합참의장, 해외파병부대 화상 격려</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:46</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>"서서 죽겠다" "미친사람들"…尹 연일 초강경 발언, 왜?</t>
+          <t>거칠어진 윤석열의 입…“중도층은 거부감 느낄 수도”</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:46</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>李 "그린벨트 풀어 주택공급, 유연하게 고민"</t>
+          <t>"정부, 내년 초 추경 편성해야"…대선 한달 전 돈 뿌린다는 與</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:46</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>세밑에도 여야 공방 지속…상대 후보 네거티브 최고조</t>
+          <t>靑 NSC "北 전원회의 개최 등 한반도 동향 면밀 점검"</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>박병석 국회의장, 수석 위원 인사</t>
+          <t>윤석열 "선대위 쇄신 계획 없다"… 이준석과 더 멀어지나</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>[노컷브이]윤석열 '막말 논란' 커지는데…김종인 "무슨 실수했나"</t>
+          <t>윤석열 '제가 바보입니까' 밈 확산…"안철수 'MB 아바타' 떠올라"</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>칠곡 방문해 지지자들에게 발언하는 윤석열 후보</t>
+          <t>野 "공수처, 정치검찰 전락"…이재명도 "野만 조회 했다면 문제"</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:44</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>윤석열 후보가 다부동 전적기념관 방문해 남긴 방명록</t>
+          <t>與, 대선용 '신년 추경' 공식화…정부에 "편성 강력요청" 압박</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:44</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>윤석열, '24시간 영업' 카페 압수수색에 "어디 무서워서 살겠나"</t>
+          <t>日아사히 "한국 공수처가 본지 특파원도 통신 조회"</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:44</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>구국용사충혼비에 헌화하는 윤석열 후보</t>
+          <t>국민의힘 김민전 “이대남, 학점 안 나와서 불만 쌓인 듯”</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>구국용사충혼비 참배하는 윤석열 후보</t>
+          <t>‘24시 카페’ 압수수색한 당국…윤석열 “국민 겁박하나”</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:42</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>구국용사충혼비 참배하는 윤석열 후보</t>
+          <t>이재명 “최대한 신속히 전시작전권 환수해야…절차는 지키면서”</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:42</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>칠곡 찾은 윤석열 후보</t>
+          <t>文대통령, 공공의료기관장 靑 초청 간담회…병상확충 노력 격려</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:42</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>윤석열 후보, 구국용사충혼비 참배</t>
+          <t>김혜경, 위안부 피해자 이용수 할머니 만나…이재명 "따뜻한 혜경씨"</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>구국경찰충혼비 참배하는 윤석열 후보</t>
+          <t>尹 TK 방문 기간 남편 대신 TK 찾은 김혜경…이재명 "결혼 잘해"</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>윤석열 후보, 구국용사충혼비 참배</t>
+          <t>민주당 전북도당 대선 선대위 1차 인선 발표</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>다부동 전적기념관 찾은 윤석열 후보</t>
+          <t>윤석열, `24시간 영업` 카페 압수수색에 "무서워서 살겠나"</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>칠곡 찾은 윤석열 후보</t>
+          <t>"이준석 성접대 의혹 밝혀달라" 국민청원 등장</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>칠곡 찾은 윤석열 후보</t>
+          <t>문 대통령, 오는 3일 신년사 발표…'국민 통합'에 방점</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>구국용사충혼비 참배하는 윤석열 후보</t>
+          <t>박상돈 천안시장, 명예 해병 위촉</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>구국용사충혼비 참배 마친 윤석열 후보</t>
+          <t>전북 범 여권 인사, 이재명 대통합론에 속속 합류</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>지지자들에게 인사하는 윤석열 후보</t>
+          <t>“게슈타포, 미친 짓”... 尹, 공수처 사찰의혹 맹폭</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>지지자들 향해 인사하는 윤석열 후보</t>
+          <t>尹 "이재명과 선거치러 부끄럽다…박 전 대통령 찾아뵙고파”</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:38</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>경북 칠곡 방문한 윤석열 후보</t>
+          <t>합참의장 "해외파병부대, 새해에도 임무 완수에 진력해 달라"</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:38</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>지지자들에게 인사하는 윤석열 후보</t>
+          <t>이재명 "좌우진영 안 따지고 사람 써…책임총리제 최대 활용"</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:37</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>경북 칠곡 방문한 윤석열 후보</t>
+          <t>원인철 합참의장, 새해 해외파병 장병 격려 "여러분이 국가대표"</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:37</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>안철수, 코로나19 관련 삼성바이오로직스 방문 [TF사진관]</t>
+          <t>주한미군, 팬데믹 이후 역대 최다 확진자 발생… 일주일간 460여명</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:36</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>尹 “영업 제한 안따른 자영업자 압수수색이라니, 눈물 안보이나”</t>
+          <t>집 없는 박근혜 사면 후 거처는?...고현정 소속사, 내곡동 사저 낙찰</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:36</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>탈당 전직 의원들 민주당 대거 입당···일부 지지자들 달래기는 숙제</t>
+          <t>임영웅 팬클럽 '영웅시대' 경기동부지역방, 남양주시에 연탄 5천장 기부</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:36</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>길어지는 국민의힘 내홍…'울산 회동' 재연될까?</t>
+          <t>조원진 대표 “조건만 맞으면 윤석열과 대화할 수 있다”</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:34</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>오산 공군부대 병사 1명 오미크론 변이 추가 확인‥군 내 4명 감염</t>
+          <t>NSC "북한 중앙위 전원회의 등 한반도 동향 면밀 점검"</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:34</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>내년부터 입양축하금 200만원·입양아동 양육수당 월20만원 지급</t>
+          <t>여야, '공수처 통신조회' 공방…與 "합법 절차" vs 野 "대선개입"</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:34</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>통일부 달력에 '김일성 생일' 기재…野 "기념일까지 챙겨줄 건가"</t>
+          <t>"미친 사람들" "중범죄자"…대구서 더 거칠어진 윤석열의 '입' (종합)</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>尹 "공수처 미친 사람들"…李 "윤석열 검찰도 조회"</t>
+          <t>합참의장, 해외파병부대 화상 격려…오미크론 방역도 당부</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:32</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>천정배 등 탈당인사 10명 민주당 복당</t>
+          <t>"통신조회는 수사 기본, 검·경은 더 많이 한다"… 김진욱, 사찰 논란 '선 긋기'</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:32</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>민주당 돌아온 천정배 전 의원</t>
+          <t>추미애·조국, 나란히 윤석열 직격…“극우·태극기 부대 다 합친 행동거지”</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:32</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>천정배 등 '호남 비문계' 10명 민주당 복당</t>
+          <t>이재명 "미중 갈등, 우리가 왜 선택하나...그들이 우리에게 오게 할 것"</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:31</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>박근혜 오늘 자정 사면 복권…당분간 입원 치료 예정</t>
+          <t>안철수 “초격차 과학기술이 살 길, AI 반도체 투자 늘려야”</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:31</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>인사말하는 유성엽 전 의원</t>
+          <t>민주당, 거칠어진 '윤석열 입' 집중포화 속 내심 미소 짓는다</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:31</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>환영 꽃다발 받는 천정배</t>
+          <t>정권심판론보다 국정안정론이 높아졌다?···안도·포기할 수 없는 여야, 왜?</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:31</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>민주당 돌아온 유성엽</t>
+          <t>대선 캠프가 보는 연말 판세…李-尹, 어디쯤 서 있나</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>민주 선대위, 미디어·ICT 특별위 출범…MZ세대·전문가 포함</t>
+          <t>與 당무위, 복당자 지방선거·총선 출마시 '페널티 예외' 의결</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>'김건희 겨냥' 현수막 서울 도심 곳곳 등장‥구청 수거 나서</t>
+          <t>윤석열, '지지율 하락' 질문에 "글쎄, 잘 모르겠다"</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>지방 부흥 적임자…이재명 40.2%, 윤석열 36.8% [한신협 여론조사]</t>
+          <t>Hana Bank president summoned as witness in Daejang-dong scandal</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>유성엽 전 의원과 기념촬영하는 송영길 대표</t>
+          <t>[12/30(목) 데일리안 퇴근길 뉴스] 윤석열 "무릎 꿇고 살기보다 서서 죽겠다" 등</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>김종민 "통신 사찰로 공수처장 구속시키면 윤석열은 무기징역감"</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>입당인사들과 기념촬영하는 송영길 대표</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>입당사하는 천정배 전 의원</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>천정배 전 의원에게 꽃다발 전달하는 송영길 대표</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>입당사하는 천정배 전 의원</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>입당인사들과 기념촬영하는 송영길 대표</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>천정배 전 의원과 기념촬영하는 송영길 대표</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>입당사하는 유성엽 전 의원</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>환영사하는 송영길 대표</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>더불어민주당 입당식</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>송영길 대표 휠체어 밀며 입당식 참석하는 천정배 전 의원</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>靑 NSC 상임위 개최…글로벌 기술보호 대책 논의</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>국민 65% ‘朴 사면’ 잘한 결정…민주당 지지층 절반도 찬성 [한신협 여론조사]</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>文정부 각세우며 연정 띄우는 李…"좋은 인재라면 안 가려"(종합2보)</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>윤석열, 방역지침 어긴 매장 압수수색에 "국민만 만만한 것"</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>현대차 인증중고차 나오나…내달 생계형 적합업종 심의위 개최(종합)</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>이상민 "송영길, 안철수 연대하려면 사전 준비했어야…뜬금없이 러브콜"</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>민주당 돌아온 천정배</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>“이런 영부인 괜찮습니까?” 김건희 비판 불법 현수막, 결국 철거</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>국민의힘 35.3% 민주당 30.6%…“후보 가족 문제, 투표 영향” 53.6% [한신협 여론조사]</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>김종인 "윤석열·이재명 토론? 무조건 거부 아니지만…"</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>다부동 구국경찰충혼비 참배하는 윤석열</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>윤석열, "자유민주주의를 지키겠습니다"</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>윤석열, 다부동 전적기념관 방명록</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>법사위, '통신조회' 논란 현안 질의…"과도한 것 아냐"</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>공수처 “검·경도 조회했는데 왜 우리만 ‘불법사찰‘이라 하느냐”</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>[영상]신당 창당 후 이준석 제거?…연일 '김한길發 정계개편' 견제하는 김종인</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>윤석열-김종인, '토론 거부' 놓고 엇박자</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>"공수처장 구속 수사" 윤석열, 2017년에는 "통신 조회 사찰 아냐"</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>부울경 지지율…윤석열 45.7%, 이재명 35.2% [한신협 여론조사]</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>이재명, 서해5도 경비단 찾아 "중국의 불법 조업, 원칙적 대응 필요" [TF사진관]</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>"석방이 시작입니다" 박근혜 입원 병원앞 뒤덮은 1000개 화환</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>문 대통령 지지율 연중 최고치… 청와대 "위기극복 노력 인정받았다"</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>국힘 "野 대선후보 사찰이 文 검찰개혁 '민낯'…대선개입"</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>지지자들 향해 인사하는 윤석열 대선후보</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>지지자들 향해 인사하는 윤석열 대선후보</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>오산 공군부대 오미크론 확진 1명 추가...軍 전체 누적 4명</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>다부동 전적기념관 찾은 윤석열</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>지지자들 향해 인사하는 윤석열 대선후보</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>[뉴스큐] 박근혜, 오늘 자정 석방...李·尹 지지율 요동</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>李, 서해 5도 찾아 "영토주권 수호" 안보 강조.. 새해 첫 날 '부산행'</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>李 “北에 할 말은 하겠다”… 대북정책도 文정부와 차별화</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>다부동 전적기념관 구국용사충혼비 참배하는 윤석열</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>인사하는 윤석열 대선후보</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>與, 공수처 논란에 "적법수사" 방어막…'윤로남불' 역공도</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>윤석열, 다부동 전적기념관 구국용사충혼비 참배</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>[사사건건] 이재명 “분노의 언어보다 희망의 언어 써달라”</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>지지자들 향해 인사하는 윤석열 대선후보</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>이재명 "산모·아이 돌봄 지원 받도록…공공산후조리원 대폭 확충"</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>대선 후보 지지율  ‘서이동윤(西李東尹)’ 현상 뚜렷 [한신협 여론조사]</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>지지자들 향해 인사하는 윤석열 대선후보</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>천정배 등 호남계 비문 與 복당…송영길 "귀한 동지들"</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>지지자들 향해 인사하는 윤석열 대선후보</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>"尹 '무릎 꿇느니 서서 죽겠다' 발언 무게 아는가"…與 "삭제하라"</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>지지자들 향해 인사하는 윤석열 대선후보</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>내년부터 입양축하금 200만원·입양아동 양육수당 월20만원 지급</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>천정배·유성엽 등 12명 민주당 입당… 다음 달 17일까지 복당 허용</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>여야 모두 야당 땐 ‘사찰’ 주장…통신자료 제공 법개정해야</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>이재명, 서해5도 경비단 찾아 "불법 어업 무력 저항에 무관용 강경 대응 필요"</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>호남계 '비문' 인사들 민주당 복당</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>여명 "신지예, 윤석열 지지율 하락 원인…중도·2030에 변수"</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>이재명 “예비내각 생각, 통합정부도” 윤석열 “정권교체 안 하면 당 뿌리뽑혀”</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>로봇 산업 강조한 윤석열, ‘로봇세’ 묻자 “말도 안 되는 얘기”</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>'호남계 비문' 유성엽, 민주당 복당</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>신지예 "성폭력 종식시키기 위한 유일한 후보는 윤석열"</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>'호남계 비문' 천정배, 민주당 복당</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>정권 교체 50.9%, 정권 재창출 39.2% [한신협 여론조사]</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>與 이상민 "공수처 통신조회, 법적 요건 충족했는지 의문"</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>윤석열, 다부동 전적기념관 구국용사충혼비 참배</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>더불어민주당으로 돌아온 천정배</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>천정배 등 '호남 비문계' 민주당 복당</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>'호남 비문계' 천정배 등 민주당 복당</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>[사사건건] 국민의힘 의총, 마이크 잡은 공수처장</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>윤석열, 다부동 전적기념관 구국용사충혼비 참배</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>전북 김광수·유성엽·김종회·김세웅 전 의원, 민주당 복당</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>다부동 전적기념관 구국용사충혼비 참배하는 윤석열</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>다부동 전적기념관 구국용사충혼비 참배하는 윤석열</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>[이슈폴폴] 여론조사로 풀어 보는 정치…12월 다섯째주 민심은?</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>천정배 등 호남계 12명, 민주당 복당</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>구국용사충혼비에 헌화하는 윤석열</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>[노컷브이]공수처장 불러놓고는 입막는 '복도 의총' 국힘</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>이재명 39.4, 윤석열 39.5 ‘초박빙’…한신협 여론조사</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>더불어민주당 입당식</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>천정배 전 의원에게 꽃다발 전하는 송영길 당대표</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>천정배 전 의원 등 민주당 입당</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>더불어민주당 입당식</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>민주당 입당사하는 천정배 전 의원</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>더불어민주당 입당식</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>입장하는 송영길-천정배</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>민주당 입당사하는 유성엽 전 의원</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>환영사하는 송영길 민주당 대표</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>인사나누는 송영길 대표와 유성엽 전 의원</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>천정배 전 의원 등 민주당 입당</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>공수처 논란에 이재명 “사찰 아니다” 윤석열 “미친 사람들”</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>“공수처 대선개입” vs “사찰 아니고 야당 내로남불”…법사위 여야 충돌</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>문 대통령, 다음 달 3일 마지막 신년사</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>윤석열-이재명 대선후보 0.1%P 격차로 초접전…박근혜 사면 ‘잘된 결정’ 65.8%</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>[인사] 질병관리청</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>2021.12.30 16:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>[르포]“윤석열 사죄해야” vs “그래도 윤석열”…복잡한 대구 민심</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>2021.12.30 16:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>靑 "공수처 통신 조회 논란‥靑 언급 부적절"</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>2021.12.30 16:57</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
     </row>
